--- a/nodes_source_analyses/households/households_water_heater_heatpump_ground_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_water_heater_heatpump_ground_water_electricity.converter.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/households/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="13940" yWindow="460" windowWidth="13940" windowHeight="17540" tabRatio="762" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="12" r:id="rId2"/>
     <sheet name="Research data" sheetId="13" r:id="rId3"/>
     <sheet name="Sources" sheetId="15" r:id="rId4"/>
+    <sheet name="Notes" sheetId="16" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -30,8 +37,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -40,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="155">
   <si>
     <t>Source</t>
   </si>
@@ -309,94 +319,10 @@
     <t>Parameter</t>
   </si>
   <si>
-    <r>
-      <t>euro/M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>W</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>h</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>euro/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>We</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>euro/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KW</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/year</t>
-    </r>
-  </si>
-  <si>
     <t>Costs</t>
   </si>
   <si>
-    <t xml:space="preserve">         Initial investment costs </t>
-  </si>
-  <si>
     <t xml:space="preserve">        Fixed operational and maintenance costs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Fixed operational and maintenance costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Variable operational and maintenance costs</t>
   </si>
   <si>
     <t>Comments</t>
@@ -492,6 +418,138 @@
   <si>
     <t>quintel/etsource@a1ef6aeb6e492aa531dd6bb87fbe5d3307c44e24</t>
   </si>
+  <si>
+    <t>storage.volume</t>
+  </si>
+  <si>
+    <t>storage.cost_per_mwh</t>
+  </si>
+  <si>
+    <t>euro/MWh</t>
+  </si>
+  <si>
+    <t>MWh</t>
+  </si>
+  <si>
+    <t>ISSO 72 and Quintel calc</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>http://www.warmtepompforum.nl/Volumeboiler.php</t>
+  </si>
+  <si>
+    <t>DHPA</t>
+  </si>
+  <si>
+    <t>Phone conversation Peter Wagener notes:</t>
+  </si>
+  <si>
+    <t>201707_Tabel RV WW en koude met warmtepompen</t>
+  </si>
+  <si>
+    <t>minimal boiler volume with shower</t>
+  </si>
+  <si>
+    <t>liter</t>
+  </si>
+  <si>
+    <t>minimal boiler volume with bath</t>
+  </si>
+  <si>
+    <t>average volume boiler</t>
+  </si>
+  <si>
+    <t>heat capacity water</t>
+  </si>
+  <si>
+    <t>kJ/oC/l</t>
+  </si>
+  <si>
+    <t>T in</t>
+  </si>
+  <si>
+    <t>oC</t>
+  </si>
+  <si>
+    <t>T vessel</t>
+  </si>
+  <si>
+    <t>Volume vessel</t>
+  </si>
+  <si>
+    <t>Capacity vessel</t>
+  </si>
+  <si>
+    <t>kJ</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>0 until more information from DHPA is available</t>
+  </si>
+  <si>
+    <t>Quintel WD</t>
+  </si>
+  <si>
+    <t>BoilerGarant</t>
+  </si>
+  <si>
+    <t>https://www.boilergarant.nl/p/indirect-gestookte-boiler-120-liter-tesy</t>
+  </si>
+  <si>
+    <t>Zonenboiler-zelfbouw</t>
+  </si>
+  <si>
+    <t>https://www.zonneboiler-zelfbouw.nl/buffervat-200-liter-1-wisselaar.html?source=googlebase&amp;gclid=EAIaIQobChMI-bqDqOvq1QIVRY0bCh05JAEyEAkYASABEgJzOvD_BwE</t>
+  </si>
+  <si>
+    <t>Initial investment (including boiler)</t>
+  </si>
+  <si>
+    <t>Costs for boiler</t>
+  </si>
+  <si>
+    <t>Zonneboiler-zelfbouw.nl</t>
+  </si>
+  <si>
+    <t>Storage volume</t>
+  </si>
+  <si>
+    <t>Costs (incl VAT)</t>
+  </si>
+  <si>
+    <t>Costs (excl VAT)</t>
+  </si>
+  <si>
+    <t>Boiler Garant</t>
+  </si>
+  <si>
+    <t>costs per liter</t>
+  </si>
+  <si>
+    <t>euro/liter</t>
+  </si>
+  <si>
+    <t>costs per MWh</t>
+  </si>
+  <si>
+    <t>liter/MWh</t>
+  </si>
+  <si>
+    <t>costs per heat pump</t>
+  </si>
+  <si>
+    <t>euro / hhp</t>
+  </si>
 </sst>
 </file>
 
@@ -501,7 +559,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -690,6 +748,19 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lettertype hoofdtekst"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1260,7 +1331,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1380,21 +1451,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1420,12 +1476,6 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1459,6 +1509,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1486,7 +1575,19 @@
     <xf numFmtId="0" fontId="26" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="257">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1749,6 +1850,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1784,7 +1890,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1792,6 +1898,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -1822,8 +1934,127 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>643023</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>138906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5273698</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>162145</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11679323" y="5028406"/>
+          <a:ext cx="6535675" cy="8760839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4725778</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11988800" y="19316700"/>
+          <a:ext cx="5678278" cy="4902200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5231546</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11988800" y="25412700"/>
+          <a:ext cx="6184046" cy="3860800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -1930,6 +2161,33 @@
       <sheetData sheetId="45" refreshError="1"/>
       <sheetData sheetId="46" refreshError="1"/>
       <sheetData sheetId="47" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover sheet"/>
+      <sheetName val="Dashboard"/>
+      <sheetName val="Research data"/>
+      <sheetName val="Sources"/>
+      <sheetName val="Notes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>storage.volume</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2264,50 +2522,50 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="48.75" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -2316,128 +2574,123 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="85"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="80"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="83" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="86"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="89" t="s">
+      <c r="B13" s="81"/>
+      <c r="C13" s="84" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87" t="s">
+      <c r="B14" s="81"/>
+      <c r="C14" s="82" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="85" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="91" t="s">
+      <c r="B17" s="81"/>
+      <c r="C17" s="86" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="92" t="s">
+      <c r="B18" s="81"/>
+      <c r="C18" s="87" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="93" t="s">
+      <c r="B19" s="81"/>
+      <c r="C19" s="88" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="95" t="s">
+      <c r="B20" s="89"/>
+      <c r="C20" s="90" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="96" t="s">
+      <c r="B21" s="89"/>
+      <c r="C21" s="91" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="97" t="s">
+      <c r="B22" s="89"/>
+      <c r="C22" s="92" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="94"/>
-      <c r="C23" s="98" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="89"/>
+      <c r="C23" s="93" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2446,63 +2699,63 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K48"/>
+  <dimension ref="B1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="46.125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="34"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="46.140625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11">
-      <c r="B2" s="126" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="152" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="128"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="154"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="129"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="131"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="155"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="157"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="132"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="134"/>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="158"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="160"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2513,12 +2766,12 @@
       <c r="I6" s="16"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="18">
-      <c r="B7" s="99"/>
+    <row r="7" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B7" s="94"/>
       <c r="C7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="95" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -2532,9 +2785,9 @@
       <c r="I7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="106"/>
-    </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="18">
+      <c r="J7" s="101"/>
+    </row>
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -2545,10 +2798,10 @@
       <c r="I8" s="14"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -2558,10 +2811,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
-      <c r="C10" s="121" t="s">
-        <v>105</v>
+      <c r="C10" s="114" t="s">
+        <v>99</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>4</v>
@@ -2572,15 +2825,15 @@
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="135" t="s">
-        <v>116</v>
+      <c r="I10" s="119" t="s">
+        <v>110</v>
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20"/>
-      <c r="C11" s="121" t="s">
-        <v>106</v>
+      <c r="C11" s="114" t="s">
+        <v>100</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>4</v>
@@ -2591,15 +2844,15 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="27"/>
-      <c r="I11" s="135" t="s">
-        <v>116</v>
+      <c r="I11" s="119" t="s">
+        <v>110</v>
       </c>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20"/>
-      <c r="C12" s="121" t="s">
-        <v>107</v>
+      <c r="C12" s="114" t="s">
+        <v>101</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>4</v>
@@ -2610,371 +2863,372 @@
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="135" t="s">
-        <v>116</v>
+      <c r="I12" s="119" t="s">
+        <v>110</v>
       </c>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
-      <c r="B13" s="37"/>
-      <c r="C13" s="33" t="s">
-        <v>32</v>
+    <row r="13" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="20"/>
+      <c r="C13" s="120" t="s">
+        <v>111</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="43">
-        <v>0</v>
+        <v>114</v>
+      </c>
+      <c r="E13" s="151">
+        <f>'Research data'!G7</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J13" s="107"/>
-      <c r="K13" s="32"/>
-    </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
-      <c r="B14" s="37"/>
-      <c r="C14" s="33" t="s">
-        <v>34</v>
+      <c r="H13" s="27"/>
+      <c r="I13" s="119" t="str">
+        <f>Sources!E7</f>
+        <v>ISSO 72 and Quintel calc</v>
+      </c>
+      <c r="J13" s="42"/>
+    </row>
+    <row r="14" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="20"/>
+      <c r="C14" s="120" t="s">
+        <v>112</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="44">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="E14" s="43">
+        <f>'Research data'!G8</f>
+        <v>50713.749060856491</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J14" s="107"/>
-      <c r="K14" s="32"/>
-    </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+      <c r="H14" s="27"/>
+      <c r="I14" s="119" t="str">
+        <f>'Research data'!L3</f>
+        <v>Zonenboiler-zelfbouw</v>
+      </c>
+      <c r="J14" s="42"/>
+    </row>
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
-      <c r="C15" s="121" t="s">
-        <v>108</v>
+      <c r="C15" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="43">
         <v>0</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
-      <c r="I15" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J15" s="107"/>
+      <c r="I15" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" s="102"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
-      <c r="I16" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J16" s="107"/>
+      <c r="I16" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" s="102"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
-      <c r="C17" s="33" t="s">
-        <v>37</v>
+      <c r="C17" s="114" t="s">
+        <v>102</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="44">
         <v>0</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
-      <c r="I17" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J17" s="107"/>
+      <c r="I17" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" s="102"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37"/>
       <c r="C18" s="33" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="31">
-        <v>0</v>
+      <c r="E18" s="44">
+        <v>1</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
-      <c r="I18" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J18" s="107"/>
+      <c r="I18" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" s="102"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="C19" s="33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="44">
+        <v>4</v>
+      </c>
+      <c r="E19" s="31">
         <v>0</v>
       </c>
       <c r="F19" s="33"/>
-      <c r="G19" s="33" t="s">
-        <v>27</v>
-      </c>
+      <c r="G19" s="33"/>
       <c r="H19" s="33"/>
-      <c r="I19" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J19" s="107"/>
-    </row>
-    <row r="20" spans="2:11" ht="16" thickBot="1">
+      <c r="I19" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" s="102"/>
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37"/>
       <c r="C20" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="31">
+        <v>0</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" s="102"/>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="37"/>
+      <c r="C21" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="44">
+        <v>0</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" s="102"/>
+    </row>
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="37"/>
+      <c r="C22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D22" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E22" s="43">
         <f>'Research data'!G6</f>
         <v>0.01</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33" t="s">
+      <c r="F22" s="33"/>
+      <c r="G22" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J20" s="107"/>
-    </row>
-    <row r="21" spans="2:11" ht="16" thickBot="1">
-      <c r="B21" s="37"/>
-      <c r="C21" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="43">
-        <v>0.35336976350806198</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J21" s="107"/>
-    </row>
-    <row r="22" spans="2:11" ht="16" thickBot="1">
-      <c r="B22" s="37"/>
-      <c r="C22" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="43">
-        <v>0.67362396706379901</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="60" t="s">
-        <v>65</v>
-      </c>
       <c r="H22" s="33"/>
-      <c r="I22" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J22" s="107"/>
-    </row>
-    <row r="23" spans="2:11" ht="16" thickBot="1">
+      <c r="I22" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" s="102"/>
+    </row>
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
       <c r="C23" s="59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="43">
-        <v>0.68662828816213295</v>
+        <v>0.35336976350806198</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H23" s="33"/>
-      <c r="I23" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J23" s="107"/>
-    </row>
-    <row r="24" spans="2:11" ht="16" thickBot="1">
+      <c r="I23" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" s="102"/>
+    </row>
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37"/>
       <c r="C24" s="59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="43">
-        <v>1.6832513508890501</v>
+        <v>0.67362396706379901</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H24" s="33"/>
-      <c r="I24" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J24" s="107"/>
-    </row>
-    <row r="25" spans="2:11" ht="16" thickBot="1">
+      <c r="I24" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="102"/>
+    </row>
+    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37"/>
       <c r="C25" s="59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="43">
+        <v>0.68662828816213295</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="G25" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J25" s="102"/>
+    </row>
+    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="37"/>
+      <c r="C26" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="43">
+        <v>1.6832513508890501</v>
+      </c>
+      <c r="F26" s="33"/>
+      <c r="G26" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="33"/>
+      <c r="I26" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="102"/>
+    </row>
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="37"/>
+      <c r="C27" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="44">
         <v>298.24124505689599</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="61" t="s">
+      <c r="F27" s="33"/>
+      <c r="G27" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J25" s="107"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="37"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="107"/>
-    </row>
-    <row r="27" spans="2:11" ht="16" thickBot="1">
-      <c r="B27" s="37"/>
-      <c r="C27" s="14" t="s">
+      <c r="H27" s="33"/>
+      <c r="I27" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J27" s="102"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="37"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="102"/>
+    </row>
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="37"/>
+      <c r="C29" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="102"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="107"/>
-    </row>
-    <row r="28" spans="2:11" ht="16" thickBot="1">
-      <c r="B28" s="37"/>
-      <c r="C28" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="44">
-        <f>'Research data'!G14</f>
-        <v>13000</v>
-      </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J28" s="107"/>
-    </row>
-    <row r="29" spans="2:11" ht="16" thickBot="1">
-      <c r="B29" s="37"/>
-      <c r="C29" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="44">
-        <v>0</v>
-      </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J29" s="107"/>
-    </row>
-    <row r="30" spans="2:11" ht="16" thickBot="1">
+      <c r="D29" s="97"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="102"/>
+    </row>
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
       <c r="C30" s="33" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="44">
-        <v>0</v>
+        <f>'Research data'!G16</f>
+        <v>12746.431254695717</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H30" s="33"/>
-      <c r="I30" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J30" s="107"/>
-    </row>
-    <row r="31" spans="2:11" ht="16" thickBot="1">
+      <c r="I30" s="119" t="str">
+        <f>Sources!E9</f>
+        <v>DHPA</v>
+      </c>
+      <c r="J30" s="102"/>
+    </row>
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>31</v>
@@ -2984,323 +3238,367 @@
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="H31" s="33"/>
-      <c r="I31" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J31" s="107"/>
-    </row>
-    <row r="32" spans="2:11" ht="16" thickBot="1">
+      <c r="I31" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J31" s="102"/>
+    </row>
+    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="37"/>
       <c r="C32" s="33" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="101">
-        <f>'Research data'!G16</f>
-        <v>100</v>
+        <v>31</v>
+      </c>
+      <c r="E32" s="44">
+        <f>'Research data'!G18</f>
+        <v>1500</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="H32" s="33"/>
-      <c r="I32" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J32" s="107"/>
-    </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+      <c r="I32" s="119" t="str">
+        <f>Sources!E9</f>
+        <v>DHPA</v>
+      </c>
+      <c r="J32" s="102"/>
+    </row>
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="43">
-        <f>'Research data'!G18</f>
+        <v>31</v>
+      </c>
+      <c r="E33" s="44">
         <v>0</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J33" s="107"/>
-    </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+      <c r="I33" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J33" s="102"/>
+    </row>
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="104">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="E34" s="96">
+        <f>'Research data'!G17</f>
+        <v>100</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H34" s="33"/>
-      <c r="I34" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J34" s="107"/>
-    </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+      <c r="I34" s="119" t="str">
+        <f>Sources!E9</f>
+        <v>DHPA</v>
+      </c>
+      <c r="J34" s="102"/>
+    </row>
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="37"/>
       <c r="C35" s="33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E35" s="43">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="H35" s="33"/>
-      <c r="I35" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J35" s="107"/>
-    </row>
-    <row r="36" spans="2:10" ht="16" thickBot="1">
+      <c r="I35" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J35" s="102"/>
+    </row>
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="37"/>
       <c r="C36" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="99">
+        <v>0</v>
+      </c>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="33"/>
+      <c r="I36" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J36" s="102"/>
+    </row>
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="37"/>
+      <c r="C37" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="43">
+        <v>0.04</v>
+      </c>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J37" s="102"/>
+    </row>
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="37"/>
+      <c r="C38" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D38" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="44">
+      <c r="E38" s="44">
         <v>0</v>
       </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J36" s="107"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="37"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="107"/>
-    </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
-      <c r="B38" s="37"/>
-      <c r="C38" s="14" t="s">
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J38" s="102"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="37"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="102"/>
+    </row>
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="37"/>
+      <c r="C40" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="102"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="107"/>
-    </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
-      <c r="B39" s="37"/>
-      <c r="C39" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="44">
-        <f>'Research data'!G9</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="33"/>
-      <c r="I39" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J39" s="107"/>
-    </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
-      <c r="B40" s="37"/>
-      <c r="C40" s="125" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="101">
-        <f>'Research data'!G10</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" s="33"/>
-      <c r="I40" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J40" s="107"/>
-    </row>
-    <row r="41" spans="2:10" ht="16" thickBot="1">
+      <c r="D40" s="97"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="102"/>
+    </row>
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="37"/>
       <c r="C41" s="33" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41" s="44">
         <f>'Research data'!G11</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="33"/>
+      <c r="I41" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J41" s="102"/>
+    </row>
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="37"/>
+      <c r="C42" s="118" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="96">
+        <f>'Research data'!G12</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="33"/>
+      <c r="I42" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J42" s="102"/>
+    </row>
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="37"/>
+      <c r="C43" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="44">
+        <f>'Research data'!G13</f>
+        <v>15</v>
+      </c>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H41" s="33"/>
-      <c r="I41" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J41" s="107"/>
-    </row>
-    <row r="42" spans="2:10" ht="16" thickBot="1">
-      <c r="B42" s="37"/>
-      <c r="C42" s="33" t="s">
+      <c r="H43" s="33"/>
+      <c r="I43" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J43" s="102"/>
+    </row>
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="37"/>
+      <c r="C44" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D44" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="44">
-        <v>0</v>
-      </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J42" s="107"/>
-    </row>
-    <row r="43" spans="2:10" ht="16" thickBot="1">
-      <c r="B43" s="37"/>
-      <c r="C43" s="117" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="101">
-        <v>6</v>
-      </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J43" s="107"/>
-    </row>
-    <row r="44" spans="2:10" ht="16" thickBot="1">
-      <c r="B44" s="37"/>
-      <c r="C44" s="117" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="101">
+      <c r="E44" s="44">
         <v>0</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
-      <c r="I44" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J44" s="107"/>
-    </row>
-    <row r="45" spans="2:10" ht="16" thickBot="1">
+      <c r="I44" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J44" s="102"/>
+    </row>
+    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="37"/>
-      <c r="C45" s="117" t="s">
-        <v>101</v>
+      <c r="C45" s="110" t="s">
+        <v>93</v>
       </c>
       <c r="D45" s="19"/>
-      <c r="E45" s="101">
-        <v>130</v>
+      <c r="E45" s="96">
+        <v>6</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J45" s="107"/>
-    </row>
-    <row r="46" spans="2:10" ht="16" thickBot="1">
+      <c r="I45" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J45" s="102"/>
+    </row>
+    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="37"/>
-      <c r="C46" s="117" t="s">
-        <v>102</v>
+      <c r="C46" s="110" t="s">
+        <v>94</v>
       </c>
       <c r="D46" s="19"/>
-      <c r="E46" s="101">
-        <v>4</v>
+      <c r="E46" s="96">
+        <v>0</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J46" s="107"/>
-    </row>
-    <row r="47" spans="2:10" ht="16" thickBot="1">
+      <c r="I46" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J46" s="102"/>
+    </row>
+    <row r="47" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="37"/>
-      <c r="C47" s="117" t="s">
-        <v>103</v>
+      <c r="C47" s="110" t="s">
+        <v>95</v>
       </c>
       <c r="D47" s="19"/>
-      <c r="E47" s="101">
-        <v>40</v>
+      <c r="E47" s="96">
+        <v>130</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
       <c r="H47" s="33"/>
-      <c r="I47" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J47" s="107"/>
-    </row>
-    <row r="48" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B48" s="38"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="40"/>
+      <c r="I47" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J47" s="102"/>
+    </row>
+    <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="37"/>
+      <c r="C48" s="110" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="96">
+        <v>4</v>
+      </c>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J48" s="102"/>
+    </row>
+    <row r="49" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="37"/>
+      <c r="C49" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="96">
+        <v>40</v>
+      </c>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="J49" s="102"/>
+    </row>
+    <row r="50" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="38"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3340,11 +3638,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3353,30 +3646,33 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:K19"/>
+  <dimension ref="B1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="62" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="62" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="62" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="62" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="62" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="62" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="62" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="62" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="62" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="62" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="62" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="62" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="62" customWidth="1"/>
     <col min="8" max="8" width="4" style="62" customWidth="1"/>
-    <col min="9" max="9" width="16" style="62" customWidth="1"/>
-    <col min="10" max="10" width="3" style="63" customWidth="1"/>
-    <col min="11" max="11" width="60" style="62" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="62"/>
+    <col min="9" max="9" width="7.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="62" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="62" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="62" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" style="63" customWidth="1"/>
+    <col min="15" max="15" width="60" style="62" customWidth="1"/>
+    <col min="16" max="16384" width="10.7109375" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="64"/>
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
@@ -3385,30 +3681,53 @@
       <c r="G2" s="65"/>
       <c r="H2" s="65"/>
       <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="J2" s="65"/>
       <c r="K2" s="65"/>
-    </row>
-    <row r="3" spans="2:11" s="21" customFormat="1">
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="65"/>
+    </row>
+    <row r="3" spans="2:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="105" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="112" t="s">
+      <c r="G3" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="112" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
+      <c r="H3" s="105"/>
+      <c r="I3" s="105" t="str">
+        <f>Sources!E9</f>
+        <v>DHPA</v>
+      </c>
+      <c r="J3" s="105" t="str">
+        <f>Sources!E7</f>
+        <v>ISSO 72 and Quintel calc</v>
+      </c>
+      <c r="K3" s="105" t="str">
+        <f>Sources!E14</f>
+        <v>BoilerGarant</v>
+      </c>
+      <c r="L3" s="105" t="str">
+        <f>Sources!E16</f>
+        <v>Zonenboiler-zelfbouw</v>
+      </c>
+      <c r="M3" s="21" t="str">
+        <f>Sources!C18</f>
+        <v>Quintel WD</v>
+      </c>
+      <c r="N3" s="58"/>
+      <c r="O3" s="105" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="67"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -3417,10 +3736,14 @@
       <c r="G4" s="69"/>
       <c r="H4" s="69"/>
       <c r="I4" s="69"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="67"/>
       <c r="C5" s="29" t="s">
         <v>87</v>
@@ -3432,251 +3755,315 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="59"/>
-    </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="59"/>
+    </row>
+    <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="67"/>
-      <c r="C6" s="122" t="s">
-        <v>109</v>
+      <c r="C6" s="115" t="s">
+        <v>103</v>
       </c>
       <c r="D6" s="70"/>
       <c r="E6" s="70"/>
       <c r="F6" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="123">
-        <f>ROUND(0.01,2)</f>
+      <c r="G6" s="116">
+        <f>M6</f>
         <v>0.01</v>
       </c>
       <c r="H6" s="72"/>
       <c r="I6" s="72"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="59"/>
-    </row>
-    <row r="7" spans="2:11">
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="150">
+        <v>0.01</v>
+      </c>
+      <c r="N6" s="69"/>
+      <c r="O6" s="59"/>
+    </row>
+    <row r="7" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="67"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="113"/>
-    </row>
-    <row r="8" spans="2:11" ht="16" thickBot="1">
+      <c r="C7" s="115" t="str">
+        <f>Dashboard!C13</f>
+        <v>storage.volume</v>
+      </c>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="115" t="str">
+        <f>Dashboard!D13</f>
+        <v>MWh</v>
+      </c>
+      <c r="G7" s="150">
+        <f>Notes!E6</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="150">
+        <f>Notes!E6</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="59"/>
+    </row>
+    <row r="8" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="67"/>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="115" t="str">
+        <f>Dashboard!C14</f>
+        <v>storage.cost_per_mwh</v>
+      </c>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="115" t="str">
+        <f>Dashboard!D14</f>
+        <v>euro/MWh</v>
+      </c>
+      <c r="G8" s="116">
+        <f>L8</f>
+        <v>50713.749060856491</v>
+      </c>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="165">
+        <f>Notes!E103</f>
+        <v>60055.755466803734</v>
+      </c>
+      <c r="L8" s="165">
+        <f>Notes!E72</f>
+        <v>50713.749060856491</v>
+      </c>
+      <c r="M8" s="72"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="120" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="67"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="106"/>
+    </row>
+    <row r="10" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="67"/>
+      <c r="C10" s="29" t="s">
         <v>7</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="30"/>
-    </row>
-    <row r="9" spans="2:11" ht="16" thickBot="1">
-      <c r="B9" s="67"/>
-      <c r="C9" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="124" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="119">
-        <f>ROUND(0,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="30"/>
-    </row>
-    <row r="10" spans="2:11" ht="16" thickBot="1">
-      <c r="B10" s="67"/>
-      <c r="C10" s="78" t="s">
-        <v>110</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
-      <c r="F10" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="119">
-        <f>ROUND(0,0)</f>
-        <v>0</v>
-      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="30"/>
-    </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1">
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="30"/>
+    </row>
+    <row r="11" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="67"/>
       <c r="C11" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="119">
-        <f>ROUND(15,0)</f>
-        <v>15</v>
-      </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="115"/>
-    </row>
-    <row r="12" spans="2:11">
+        <v>105</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="112">
+        <f>M11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="166">
+        <v>0</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="30"/>
+    </row>
+    <row r="12" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="67"/>
-      <c r="C12" s="29"/>
+      <c r="C12" s="78" t="s">
+        <v>104</v>
+      </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="59"/>
-    </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+      <c r="F12" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="112">
+        <f>M12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="166">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12"/>
+      <c r="O12" s="30"/>
+    </row>
+    <row r="13" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="67"/>
-      <c r="C13" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="59"/>
-    </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+      <c r="C13" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="112">
+        <f>M13</f>
+        <v>15</v>
+      </c>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="167">
+        <v>15</v>
+      </c>
+      <c r="N13" s="74"/>
+      <c r="O13" s="108"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="67"/>
-      <c r="C14" s="108" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="108" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="77">
-        <f>ROUND(G15*G6*1000,2)</f>
-        <v>13000</v>
-      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="116"/>
-    </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="59"/>
+    </row>
+    <row r="15" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="67"/>
-      <c r="C15" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="109" t="s">
+      <c r="C15" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="59"/>
+    </row>
+    <row r="16" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="67"/>
+      <c r="C16" s="103" t="str">
+        <f>Dashboard!C30</f>
+        <v>initial_investment</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="77">
+        <f>I16</f>
+        <v>12746.431254695717</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="167">
+        <f>Notes!E61</f>
+        <v>12746.431254695717</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="109"/>
+    </row>
+    <row r="17" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="67"/>
+      <c r="C17" s="107" t="s">
         <v>90</v>
-      </c>
-      <c r="G15" s="77">
-        <v>1300</v>
-      </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="120"/>
-    </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
-      <c r="B16" s="67"/>
-      <c r="C16" s="114" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="118" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="80">
-        <v>100</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="120"/>
-    </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
-      <c r="B17" s="67"/>
-      <c r="C17" s="108" t="s">
-        <v>95</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
-      <c r="F17" s="110" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="80"/>
+      <c r="F17" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="77">
+        <f>I17</f>
+        <v>100</v>
+      </c>
       <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="120"/>
-    </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
-      <c r="B18" s="67"/>
-      <c r="C18" s="114" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="71" t="s">
-        <v>50</v>
+      <c r="I17" s="167">
+        <f>Notes!E63</f>
+        <v>100</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="113"/>
+    </row>
+    <row r="18" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="106" t="str">
+        <f>Dashboard!C32</f>
+        <v>cost_of_installing</v>
+      </c>
+      <c r="F18" s="106">
+        <f>Dashboard!F32</f>
+        <v>0</v>
       </c>
       <c r="G18" s="77">
-        <v>0</v>
-      </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="116"/>
-    </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
-      <c r="B19" s="67"/>
-      <c r="C19" s="108" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="109" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="83">
-        <v>0</v>
-      </c>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="30"/>
+        <f>I18</f>
+        <v>1500</v>
+      </c>
+      <c r="I18" s="167">
+        <f>Notes!E62</f>
+        <v>1500</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3685,28 +4072,28 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:K5"/>
+  <dimension ref="B1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="45" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="45" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="37" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="45" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="46" customWidth="1"/>
     <col min="11" max="11" width="66" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="45"/>
+    <col min="12" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="47"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -3716,9 +4103,9 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="49"/>
-      <c r="K2" s="48"/>
-    </row>
-    <row r="3" spans="2:11">
+      <c r="K2" s="128"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
         <v>21</v>
@@ -3730,9 +4117,9 @@
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
       <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="2:11">
+      <c r="K3" s="129"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="50"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -3742,9 +4129,9 @@
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
       <c r="J4" s="54"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="2:11">
+      <c r="K4" s="129"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>28</v>
@@ -3760,25 +4147,1842 @@
         <v>29</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>57</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="K5" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="130" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="50"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="129"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="50"/>
+      <c r="C7" s="126" t="str">
+        <f>Dashboard!C13</f>
+        <v>storage.volume</v>
+      </c>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="122" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="122">
+        <v>2010</v>
+      </c>
+      <c r="H7" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="123">
+        <v>42948</v>
+      </c>
+      <c r="J7" s="124" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="125"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="50"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="129"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="50"/>
+      <c r="C9" s="126" t="str">
+        <f>Dashboard!C15</f>
+        <v>availability</v>
+      </c>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="122" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123">
+        <v>42948</v>
+      </c>
+      <c r="J9" s="121" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="125" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="50"/>
+      <c r="C10" s="126" t="str">
+        <f>Dashboard!C30</f>
+        <v>initial_investment</v>
+      </c>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="125"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="50"/>
+      <c r="C11" s="126" t="str">
+        <f>Dashboard!C32</f>
+        <v>cost_of_installing</v>
+      </c>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="125"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="50"/>
+      <c r="C12" s="126" t="str">
+        <f>Dashboard!C34</f>
+        <v>fixed_operation_and_maintenance_costs_per_year</v>
+      </c>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="125"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="50"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="129"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="50"/>
+      <c r="C14" s="126" t="str">
+        <f>Dashboard!C$14</f>
+        <v>storage.cost_per_mwh</v>
+      </c>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="122" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="123">
+        <v>42979</v>
+      </c>
+      <c r="J14" s="121"/>
+      <c r="K14" s="125" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="50"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="125"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="50"/>
+      <c r="C16" s="126" t="str">
+        <f>Dashboard!C$14</f>
+        <v>storage.cost_per_mwh</v>
+      </c>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="122" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="123">
+        <v>42979</v>
+      </c>
+      <c r="J16" s="121"/>
+      <c r="K16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="50"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="121"/>
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="50"/>
+      <c r="C18" s="126" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="121"/>
+      <c r="K18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="131"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="134"/>
+    </row>
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="119"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K141"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="135" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="135" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="135" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="135" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.5703125" style="135" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="135" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="135"/>
+    <col min="10" max="10" width="62.42578125" style="135" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="135"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="143"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="144"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="94"/>
+      <c r="C4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="145"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="136"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="138"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="136"/>
+      <c r="C6" s="14" t="str">
+        <f>Sources!E7</f>
+        <v>ISSO 72 and Quintel calc</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="137">
+        <f>MROUND(E21/1000,0.001)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="137" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="138"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="136"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="138"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="136"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="138"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="136"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="138"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="136"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="138"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="136"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="139" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="138"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="136"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="137">
+        <v>80</v>
+      </c>
+      <c r="F12" s="139" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="138"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="136"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="137">
+        <v>115</v>
+      </c>
+      <c r="F13" s="139" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="138"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="136"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="137">
+        <f>MROUND(AVERAGE(E12:E13),20)</f>
+        <v>100</v>
+      </c>
+      <c r="F14" s="140" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="138"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="136"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="138"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="136"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="139" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="139">
+        <v>4.18</v>
+      </c>
+      <c r="F16" s="139" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="138"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="136"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="139" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="139">
+        <v>10</v>
+      </c>
+      <c r="F17" s="139" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="138"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="136"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="139" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="139">
+        <v>50</v>
+      </c>
+      <c r="F18" s="139" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="138"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="136"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="139" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="139">
+        <f>E14</f>
+        <v>100</v>
+      </c>
+      <c r="F19" s="139" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="138"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="136"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="139" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="141">
+        <f>E19*(E18-E17)*E16</f>
+        <v>16720</v>
+      </c>
+      <c r="F20" s="139" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="138"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="136"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="142" t="str">
+        <f>'[2]Research data'!C12</f>
+        <v>storage.volume</v>
+      </c>
+      <c r="E21" s="139">
+        <f>(E20/3600)</f>
+        <v>4.6444444444444448</v>
+      </c>
+      <c r="F21" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="138"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="136"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="138"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="136"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="138"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="136"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="138"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="136"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="138"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="136"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="138"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="136"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="138"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="136"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="138"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="136"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="138"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="136"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="138"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="136"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="138"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="136"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="138"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="136"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="137"/>
+      <c r="J33" s="138"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="136"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="137"/>
+      <c r="H34" s="137"/>
+      <c r="I34" s="137"/>
+      <c r="J34" s="138"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="136"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="137"/>
+      <c r="J35" s="138"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="136"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="138"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="136"/>
+      <c r="C37" s="137"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="137"/>
+      <c r="J37" s="138"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="136"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="137"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="137"/>
+      <c r="J38" s="138"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="136"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="137"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="137"/>
+      <c r="J39" s="138"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="136"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="137"/>
+      <c r="F40" s="137"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137"/>
+      <c r="J40" s="138"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="136"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
+      <c r="J41" s="138"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="136"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
+      <c r="J42" s="138"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="136"/>
+      <c r="C43" s="137"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="137"/>
+      <c r="F43" s="137"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="137"/>
+      <c r="J43" s="138"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="136"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="137"/>
+      <c r="F44" s="137"/>
+      <c r="G44" s="137"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="137"/>
+      <c r="J44" s="138"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="136"/>
+      <c r="C45" s="137"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="137"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="137"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="137"/>
+      <c r="J45" s="138"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="136"/>
+      <c r="C46" s="137"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="137"/>
+      <c r="F46" s="137"/>
+      <c r="G46" s="137"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="137"/>
+      <c r="J46" s="138"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="136"/>
+      <c r="C47" s="137"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="137"/>
+      <c r="J47" s="138"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="136"/>
+      <c r="C48" s="137"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="137"/>
+      <c r="F48" s="137"/>
+      <c r="G48" s="137"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="137"/>
+      <c r="J48" s="138"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="136"/>
+      <c r="C49" s="137"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="137"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="137"/>
+      <c r="J49" s="138"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="136"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
+      <c r="J50" s="138"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="136"/>
+      <c r="C51" s="137"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="137"/>
+      <c r="F51" s="137"/>
+      <c r="G51" s="137"/>
+      <c r="H51" s="137"/>
+      <c r="I51" s="137"/>
+      <c r="J51" s="138"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="136"/>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="137"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="137"/>
+      <c r="J52" s="138"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="136"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="137"/>
+      <c r="G53" s="137"/>
+      <c r="H53" s="137"/>
+      <c r="I53" s="137"/>
+      <c r="J53" s="138"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="136"/>
+      <c r="C54" s="137"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="137"/>
+      <c r="F54" s="137"/>
+      <c r="G54" s="137"/>
+      <c r="H54" s="137"/>
+      <c r="I54" s="137"/>
+      <c r="J54" s="138"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="136"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="137"/>
+      <c r="F55" s="137"/>
+      <c r="G55" s="137"/>
+      <c r="H55" s="137"/>
+      <c r="I55" s="137"/>
+      <c r="J55" s="138"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="136"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="137"/>
+      <c r="E56" s="137"/>
+      <c r="F56" s="137"/>
+      <c r="G56" s="137"/>
+      <c r="H56" s="137"/>
+      <c r="I56" s="137"/>
+      <c r="J56" s="138"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="136"/>
+      <c r="C57" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" s="137"/>
+      <c r="E57" s="137"/>
+      <c r="F57" s="137"/>
+      <c r="G57" s="137"/>
+      <c r="H57" s="137"/>
+      <c r="I57" s="137"/>
+      <c r="J57" s="138"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="136"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="137"/>
+      <c r="F58" s="137"/>
+      <c r="G58" s="137"/>
+      <c r="H58" s="137"/>
+      <c r="I58" s="137"/>
+      <c r="J58" s="138"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="136"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="137"/>
+      <c r="G59" s="137"/>
+      <c r="H59" s="137"/>
+      <c r="I59" s="137"/>
+      <c r="J59" s="138"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="136"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="147"/>
+      <c r="E60" s="148"/>
+      <c r="F60" s="149"/>
+      <c r="G60" s="149"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="137"/>
+      <c r="J60" s="138"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="136"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="147" t="str">
+        <f>Dashboard!C30</f>
+        <v>initial_investment</v>
+      </c>
+      <c r="E61" s="164">
+        <f>E66-E67</f>
+        <v>12746.431254695717</v>
+      </c>
+      <c r="F61" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="137"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="137"/>
+      <c r="J61" s="138"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="136"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="147" t="str">
+        <f>Dashboard!C32</f>
+        <v>cost_of_installing</v>
+      </c>
+      <c r="E62" s="137">
+        <v>1500</v>
+      </c>
+      <c r="F62" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="137"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="137"/>
+      <c r="J62" s="138"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="136"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="147" t="str">
+        <f>Dashboard!C34</f>
+        <v>fixed_operation_and_maintenance_costs_per_year</v>
+      </c>
+      <c r="E63" s="137">
+        <v>100</v>
+      </c>
+      <c r="F63" s="137" t="s">
+        <v>51</v>
+      </c>
+      <c r="G63" s="137"/>
+      <c r="H63" s="137"/>
+      <c r="I63" s="137"/>
+      <c r="J63" s="138"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="136"/>
+      <c r="C64" s="137"/>
+      <c r="D64" s="147"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="137"/>
+      <c r="G64" s="137"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="137"/>
+      <c r="J64" s="138"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B65" s="136"/>
+      <c r="C65" s="137"/>
+      <c r="D65" s="137"/>
+      <c r="E65" s="137"/>
+      <c r="F65" s="137"/>
+      <c r="G65" s="137"/>
+      <c r="H65" s="137"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="138"/>
+      <c r="K65" s="137"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B66" s="136"/>
+      <c r="C66" s="137"/>
+      <c r="D66" s="137" t="s">
+        <v>142</v>
+      </c>
+      <c r="E66" s="137">
+        <v>13000</v>
+      </c>
+      <c r="F66" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="137"/>
+      <c r="H66" s="137"/>
+      <c r="I66" s="137"/>
+      <c r="J66" s="138"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B67" s="136"/>
+      <c r="C67" s="137"/>
+      <c r="D67" s="137" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" s="163">
+        <f>E72*E6</f>
+        <v>253.56874530428246</v>
+      </c>
+      <c r="F67" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="137"/>
+      <c r="H67" s="137"/>
+      <c r="I67" s="137"/>
+      <c r="J67" s="138"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B68" s="136"/>
+      <c r="C68" s="137"/>
+      <c r="D68" s="146"/>
+      <c r="E68" s="137"/>
+      <c r="F68" s="137"/>
+      <c r="G68" s="137"/>
+      <c r="H68" s="137"/>
+      <c r="I68" s="137"/>
+      <c r="J68" s="138"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B69" s="136"/>
+      <c r="C69" s="137"/>
+      <c r="D69" s="146"/>
+      <c r="E69" s="137"/>
+      <c r="F69" s="137"/>
+      <c r="G69" s="137"/>
+      <c r="H69" s="137"/>
+      <c r="I69" s="137"/>
+      <c r="J69" s="138"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B70" s="136"/>
+      <c r="C70" s="137"/>
+      <c r="D70" s="137"/>
+      <c r="E70" s="137"/>
+      <c r="F70" s="137"/>
+      <c r="G70" s="137"/>
+      <c r="H70" s="137"/>
+      <c r="I70" s="137"/>
+      <c r="J70" s="138"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B71" s="136"/>
+      <c r="C71" s="137"/>
+      <c r="D71" s="137"/>
+      <c r="E71" s="137"/>
+      <c r="F71" s="137"/>
+      <c r="G71" s="137"/>
+      <c r="H71" s="137"/>
+      <c r="I71" s="137"/>
+      <c r="J71" s="138"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B72" s="136"/>
+      <c r="C72" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" s="142" t="str">
+        <f>Dashboard!C$14</f>
+        <v>storage.cost_per_mwh</v>
+      </c>
+      <c r="E72" s="161">
+        <f>E76*E77</f>
+        <v>50713.749060856491</v>
+      </c>
+      <c r="F72" s="139" t="s">
+        <v>113</v>
+      </c>
+      <c r="G72" s="137"/>
+      <c r="H72" s="137"/>
+      <c r="I72" s="137"/>
+      <c r="J72" s="138"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B73" s="136"/>
+      <c r="C73" s="137"/>
+      <c r="D73" s="137" t="s">
+        <v>145</v>
+      </c>
+      <c r="E73" s="137">
+        <v>200</v>
+      </c>
+      <c r="F73" s="137" t="s">
+        <v>123</v>
+      </c>
+      <c r="G73" s="137"/>
+      <c r="H73" s="137"/>
+      <c r="I73" s="137"/>
+      <c r="J73" s="138"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B74" s="136"/>
+      <c r="C74" s="137"/>
+      <c r="D74" s="137" t="s">
+        <v>146</v>
+      </c>
+      <c r="E74" s="137">
+        <v>570</v>
+      </c>
+      <c r="F74" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" s="137"/>
+      <c r="H74" s="137"/>
+      <c r="I74" s="137"/>
+      <c r="J74" s="138"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B75" s="136"/>
+      <c r="C75" s="137"/>
+      <c r="D75" s="137" t="s">
+        <v>147</v>
+      </c>
+      <c r="E75" s="162">
+        <f>E74/1.21</f>
+        <v>471.07438016528926</v>
+      </c>
+      <c r="F75" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" s="137"/>
+      <c r="H75" s="137"/>
+      <c r="I75" s="137"/>
+      <c r="J75" s="138"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B76" s="136"/>
+      <c r="C76" s="137"/>
+      <c r="D76" s="137" t="s">
+        <v>149</v>
+      </c>
+      <c r="E76" s="163">
+        <f>E75/E73</f>
+        <v>2.3553719008264462</v>
+      </c>
+      <c r="F76" s="137" t="s">
+        <v>150</v>
+      </c>
+      <c r="G76" s="137"/>
+      <c r="H76" s="137"/>
+      <c r="I76" s="137"/>
+      <c r="J76" s="138"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B77" s="136"/>
+      <c r="C77" s="137"/>
+      <c r="D77" s="137" t="s">
+        <v>151</v>
+      </c>
+      <c r="E77" s="162">
+        <f>E$19/E$21*1000</f>
+        <v>21531.100478468896</v>
+      </c>
+      <c r="F77" s="137" t="s">
+        <v>152</v>
+      </c>
+      <c r="G77" s="137"/>
+      <c r="H77" s="137"/>
+      <c r="I77" s="137"/>
+      <c r="J77" s="138"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B78" s="136"/>
+      <c r="C78" s="137"/>
+      <c r="D78" s="137" t="s">
+        <v>153</v>
+      </c>
+      <c r="E78" s="162">
+        <f>E72*E$6</f>
+        <v>253.56874530428246</v>
+      </c>
+      <c r="F78" s="137" t="s">
+        <v>154</v>
+      </c>
+      <c r="G78" s="137"/>
+      <c r="H78" s="137"/>
+      <c r="I78" s="137"/>
+      <c r="J78" s="138"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B79" s="136"/>
+      <c r="C79" s="137"/>
+      <c r="D79" s="137"/>
+      <c r="E79" s="162"/>
+      <c r="F79" s="137"/>
+      <c r="G79" s="137"/>
+      <c r="H79" s="137"/>
+      <c r="I79" s="137"/>
+      <c r="J79" s="138"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B80" s="136"/>
+      <c r="C80" s="137"/>
+      <c r="D80" s="137"/>
+      <c r="E80" s="162"/>
+      <c r="F80" s="137"/>
+      <c r="G80" s="137"/>
+      <c r="H80" s="137"/>
+      <c r="I80" s="137"/>
+      <c r="J80" s="138"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B81" s="136"/>
+      <c r="C81" s="137"/>
+      <c r="D81" s="137"/>
+      <c r="E81" s="162"/>
+      <c r="F81" s="137"/>
+      <c r="G81" s="137"/>
+      <c r="H81" s="137"/>
+      <c r="I81" s="137"/>
+      <c r="J81" s="138"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B82" s="136"/>
+      <c r="C82" s="137"/>
+      <c r="D82" s="137"/>
+      <c r="E82" s="162"/>
+      <c r="F82" s="137"/>
+      <c r="G82" s="137"/>
+      <c r="H82" s="137"/>
+      <c r="I82" s="137"/>
+      <c r="J82" s="138"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B83" s="136"/>
+      <c r="C83" s="137"/>
+      <c r="D83" s="137"/>
+      <c r="E83" s="162"/>
+      <c r="F83" s="137"/>
+      <c r="G83" s="137"/>
+      <c r="H83" s="137"/>
+      <c r="I83" s="137"/>
+      <c r="J83" s="138"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B84" s="136"/>
+      <c r="C84" s="137"/>
+      <c r="D84" s="137"/>
+      <c r="E84" s="162"/>
+      <c r="F84" s="137"/>
+      <c r="G84" s="137"/>
+      <c r="H84" s="137"/>
+      <c r="I84" s="137"/>
+      <c r="J84" s="138"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B85" s="136"/>
+      <c r="C85" s="137"/>
+      <c r="D85" s="137"/>
+      <c r="E85" s="162"/>
+      <c r="F85" s="137"/>
+      <c r="G85" s="137"/>
+      <c r="H85" s="137"/>
+      <c r="I85" s="137"/>
+      <c r="J85" s="138"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B86" s="136"/>
+      <c r="C86" s="137"/>
+      <c r="D86" s="137"/>
+      <c r="E86" s="162"/>
+      <c r="F86" s="137"/>
+      <c r="G86" s="137"/>
+      <c r="H86" s="137"/>
+      <c r="I86" s="137"/>
+      <c r="J86" s="138"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B87" s="136"/>
+      <c r="C87" s="137"/>
+      <c r="D87" s="137"/>
+      <c r="E87" s="162"/>
+      <c r="F87" s="137"/>
+      <c r="G87" s="137"/>
+      <c r="H87" s="137"/>
+      <c r="I87" s="137"/>
+      <c r="J87" s="138"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B88" s="136"/>
+      <c r="C88" s="137"/>
+      <c r="D88" s="137"/>
+      <c r="E88" s="162"/>
+      <c r="F88" s="137"/>
+      <c r="G88" s="137"/>
+      <c r="H88" s="137"/>
+      <c r="I88" s="137"/>
+      <c r="J88" s="138"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B89" s="136"/>
+      <c r="C89" s="137"/>
+      <c r="D89" s="137"/>
+      <c r="E89" s="162"/>
+      <c r="F89" s="137"/>
+      <c r="G89" s="137"/>
+      <c r="H89" s="137"/>
+      <c r="I89" s="137"/>
+      <c r="J89" s="138"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B90" s="136"/>
+      <c r="C90" s="137"/>
+      <c r="D90" s="137"/>
+      <c r="E90" s="162"/>
+      <c r="F90" s="137"/>
+      <c r="G90" s="137"/>
+      <c r="H90" s="137"/>
+      <c r="I90" s="137"/>
+      <c r="J90" s="138"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B91" s="136"/>
+      <c r="C91" s="137"/>
+      <c r="D91" s="137"/>
+      <c r="E91" s="162"/>
+      <c r="F91" s="137"/>
+      <c r="G91" s="137"/>
+      <c r="H91" s="137"/>
+      <c r="I91" s="137"/>
+      <c r="J91" s="138"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B92" s="136"/>
+      <c r="C92" s="137"/>
+      <c r="D92" s="137"/>
+      <c r="E92" s="162"/>
+      <c r="F92" s="137"/>
+      <c r="G92" s="137"/>
+      <c r="H92" s="137"/>
+      <c r="I92" s="137"/>
+      <c r="J92" s="138"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B93" s="136"/>
+      <c r="C93" s="137"/>
+      <c r="D93" s="137"/>
+      <c r="E93" s="162"/>
+      <c r="F93" s="137"/>
+      <c r="G93" s="137"/>
+      <c r="H93" s="137"/>
+      <c r="I93" s="137"/>
+      <c r="J93" s="138"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B94" s="136"/>
+      <c r="C94" s="137"/>
+      <c r="D94" s="137"/>
+      <c r="E94" s="162"/>
+      <c r="F94" s="137"/>
+      <c r="G94" s="137"/>
+      <c r="H94" s="137"/>
+      <c r="I94" s="137"/>
+      <c r="J94" s="138"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B95" s="136"/>
+      <c r="C95" s="137"/>
+      <c r="D95" s="137"/>
+      <c r="E95" s="162"/>
+      <c r="F95" s="137"/>
+      <c r="G95" s="137"/>
+      <c r="H95" s="137"/>
+      <c r="I95" s="137"/>
+      <c r="J95" s="138"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B96" s="136"/>
+      <c r="C96" s="137"/>
+      <c r="D96" s="137"/>
+      <c r="E96" s="162"/>
+      <c r="F96" s="137"/>
+      <c r="G96" s="137"/>
+      <c r="H96" s="137"/>
+      <c r="I96" s="137"/>
+      <c r="J96" s="138"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B97" s="136"/>
+      <c r="C97" s="137"/>
+      <c r="D97" s="137"/>
+      <c r="E97" s="162"/>
+      <c r="F97" s="137"/>
+      <c r="G97" s="137"/>
+      <c r="H97" s="137"/>
+      <c r="I97" s="137"/>
+      <c r="J97" s="138"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B98" s="136"/>
+      <c r="C98" s="137"/>
+      <c r="D98" s="137"/>
+      <c r="E98" s="162"/>
+      <c r="F98" s="137"/>
+      <c r="G98" s="137"/>
+      <c r="H98" s="137"/>
+      <c r="I98" s="137"/>
+      <c r="J98" s="138"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B99" s="136"/>
+      <c r="C99" s="137"/>
+      <c r="D99" s="137"/>
+      <c r="E99" s="162"/>
+      <c r="F99" s="137"/>
+      <c r="G99" s="137"/>
+      <c r="H99" s="137"/>
+      <c r="I99" s="137"/>
+      <c r="J99" s="138"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B100" s="136"/>
+      <c r="C100" s="137"/>
+      <c r="D100" s="137"/>
+      <c r="E100" s="162"/>
+      <c r="F100" s="137"/>
+      <c r="G100" s="137"/>
+      <c r="H100" s="137"/>
+      <c r="I100" s="137"/>
+      <c r="J100" s="138"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B101" s="136"/>
+      <c r="C101" s="137"/>
+      <c r="D101" s="137"/>
+      <c r="E101" s="162"/>
+      <c r="F101" s="137"/>
+      <c r="G101" s="137"/>
+      <c r="H101" s="137"/>
+      <c r="I101" s="137"/>
+      <c r="J101" s="138"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B102" s="136"/>
+      <c r="C102" s="137"/>
+      <c r="D102" s="137"/>
+      <c r="E102" s="162"/>
+      <c r="F102" s="137"/>
+      <c r="G102" s="137"/>
+      <c r="H102" s="137"/>
+      <c r="I102" s="137"/>
+      <c r="J102" s="138"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B103" s="136"/>
+      <c r="C103" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D103" s="142" t="str">
+        <f>Dashboard!C$14</f>
+        <v>storage.cost_per_mwh</v>
+      </c>
+      <c r="E103" s="161">
+        <f>E107*E108</f>
+        <v>60055.755466803734</v>
+      </c>
+      <c r="F103" s="139" t="s">
+        <v>113</v>
+      </c>
+      <c r="G103" s="137"/>
+      <c r="H103" s="137"/>
+      <c r="I103" s="137"/>
+      <c r="J103" s="138"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B104" s="136"/>
+      <c r="C104" s="137"/>
+      <c r="D104" s="137" t="s">
+        <v>145</v>
+      </c>
+      <c r="E104" s="137">
+        <v>120</v>
+      </c>
+      <c r="F104" s="137" t="s">
+        <v>123</v>
+      </c>
+      <c r="G104" s="137"/>
+      <c r="H104" s="137"/>
+      <c r="I104" s="137"/>
+      <c r="J104" s="138"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B105" s="136"/>
+      <c r="C105" s="137"/>
+      <c r="D105" s="137" t="s">
+        <v>146</v>
+      </c>
+      <c r="E105" s="137">
+        <v>405</v>
+      </c>
+      <c r="F105" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="G105" s="137"/>
+      <c r="H105" s="137"/>
+      <c r="I105" s="137"/>
+      <c r="J105" s="138"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B106" s="136"/>
+      <c r="C106" s="137"/>
+      <c r="D106" s="137" t="s">
+        <v>147</v>
+      </c>
+      <c r="E106" s="162">
+        <f>E105/1.21</f>
+        <v>334.71074380165288</v>
+      </c>
+      <c r="F106" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="G106" s="137"/>
+      <c r="H106" s="137"/>
+      <c r="I106" s="137"/>
+      <c r="J106" s="138"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B107" s="136"/>
+      <c r="C107" s="137"/>
+      <c r="D107" s="137" t="s">
+        <v>149</v>
+      </c>
+      <c r="E107" s="163">
+        <f>E106/E104</f>
+        <v>2.7892561983471071</v>
+      </c>
+      <c r="F107" s="137" t="s">
+        <v>150</v>
+      </c>
+      <c r="G107" s="137"/>
+      <c r="H107" s="137"/>
+      <c r="I107" s="137"/>
+      <c r="J107" s="138"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B108" s="136"/>
+      <c r="C108" s="137"/>
+      <c r="D108" s="137" t="s">
+        <v>151</v>
+      </c>
+      <c r="E108" s="162">
+        <f>E$19/E$21*1000</f>
+        <v>21531.100478468896</v>
+      </c>
+      <c r="F108" s="137" t="s">
+        <v>152</v>
+      </c>
+      <c r="G108" s="137"/>
+      <c r="H108" s="137"/>
+      <c r="I108" s="137"/>
+      <c r="J108" s="138"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B109" s="136"/>
+      <c r="C109" s="137"/>
+      <c r="D109" s="137" t="s">
+        <v>153</v>
+      </c>
+      <c r="E109" s="162">
+        <f>E103*E$6</f>
+        <v>300.27877733401868</v>
+      </c>
+      <c r="F109" s="137" t="s">
+        <v>154</v>
+      </c>
+      <c r="G109" s="137"/>
+      <c r="H109" s="137"/>
+      <c r="I109" s="137"/>
+      <c r="J109" s="138"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B110" s="136"/>
+      <c r="C110" s="137"/>
+      <c r="D110" s="137"/>
+      <c r="E110" s="162"/>
+      <c r="F110" s="137"/>
+      <c r="G110" s="137"/>
+      <c r="H110" s="137"/>
+      <c r="I110" s="137"/>
+      <c r="J110" s="138"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B111" s="136"/>
+      <c r="C111" s="137"/>
+      <c r="D111" s="137"/>
+      <c r="E111" s="162"/>
+      <c r="F111" s="137"/>
+      <c r="G111" s="137"/>
+      <c r="H111" s="137"/>
+      <c r="I111" s="137"/>
+      <c r="J111" s="138"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B112" s="136"/>
+      <c r="C112" s="137"/>
+      <c r="D112" s="137"/>
+      <c r="E112" s="162"/>
+      <c r="F112" s="137"/>
+      <c r="G112" s="137"/>
+      <c r="H112" s="137"/>
+      <c r="I112" s="137"/>
+      <c r="J112" s="138"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B113" s="136"/>
+      <c r="C113" s="137"/>
+      <c r="D113" s="137"/>
+      <c r="E113" s="162"/>
+      <c r="F113" s="137"/>
+      <c r="G113" s="137"/>
+      <c r="H113" s="137"/>
+      <c r="I113" s="137"/>
+      <c r="J113" s="138"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B114" s="136"/>
+      <c r="C114" s="137"/>
+      <c r="D114" s="137"/>
+      <c r="E114" s="162"/>
+      <c r="F114" s="137"/>
+      <c r="G114" s="137"/>
+      <c r="H114" s="137"/>
+      <c r="I114" s="137"/>
+      <c r="J114" s="138"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B115" s="136"/>
+      <c r="C115" s="137"/>
+      <c r="D115" s="137"/>
+      <c r="E115" s="162"/>
+      <c r="F115" s="137"/>
+      <c r="G115" s="137"/>
+      <c r="H115" s="137"/>
+      <c r="I115" s="137"/>
+      <c r="J115" s="138"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B116" s="136"/>
+      <c r="C116" s="137"/>
+      <c r="D116" s="137"/>
+      <c r="E116" s="162"/>
+      <c r="F116" s="137"/>
+      <c r="G116" s="137"/>
+      <c r="H116" s="137"/>
+      <c r="I116" s="137"/>
+      <c r="J116" s="138"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B117" s="136"/>
+      <c r="C117" s="137"/>
+      <c r="D117" s="137"/>
+      <c r="E117" s="162"/>
+      <c r="F117" s="137"/>
+      <c r="G117" s="137"/>
+      <c r="H117" s="137"/>
+      <c r="I117" s="137"/>
+      <c r="J117" s="138"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B118" s="136"/>
+      <c r="C118" s="137"/>
+      <c r="D118" s="137"/>
+      <c r="E118" s="162"/>
+      <c r="F118" s="137"/>
+      <c r="G118" s="137"/>
+      <c r="H118" s="137"/>
+      <c r="I118" s="137"/>
+      <c r="J118" s="138"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B119" s="136"/>
+      <c r="C119" s="137"/>
+      <c r="D119" s="137"/>
+      <c r="E119" s="162"/>
+      <c r="F119" s="137"/>
+      <c r="G119" s="137"/>
+      <c r="H119" s="137"/>
+      <c r="I119" s="137"/>
+      <c r="J119" s="138"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B120" s="136"/>
+      <c r="C120" s="137"/>
+      <c r="D120" s="137"/>
+      <c r="E120" s="162"/>
+      <c r="F120" s="137"/>
+      <c r="G120" s="137"/>
+      <c r="H120" s="137"/>
+      <c r="I120" s="137"/>
+      <c r="J120" s="138"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B121" s="136"/>
+      <c r="C121" s="137"/>
+      <c r="D121" s="137"/>
+      <c r="E121" s="162"/>
+      <c r="F121" s="137"/>
+      <c r="G121" s="137"/>
+      <c r="H121" s="137"/>
+      <c r="I121" s="137"/>
+      <c r="J121" s="138"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B122" s="136"/>
+      <c r="C122" s="137"/>
+      <c r="D122" s="137"/>
+      <c r="E122" s="162"/>
+      <c r="F122" s="137"/>
+      <c r="G122" s="137"/>
+      <c r="H122" s="137"/>
+      <c r="I122" s="137"/>
+      <c r="J122" s="138"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B123" s="136"/>
+      <c r="C123" s="137"/>
+      <c r="D123" s="137"/>
+      <c r="E123" s="162"/>
+      <c r="F123" s="137"/>
+      <c r="G123" s="137"/>
+      <c r="H123" s="137"/>
+      <c r="I123" s="137"/>
+      <c r="J123" s="138"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="21"/>
+      <c r="B141" s="21"/>
+      <c r="C141" s="21"/>
+      <c r="E141" s="137"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/nodes_source_analyses/households/households_water_heater_heatpump_ground_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_water_heater_heatpump_ground_water_electricity.converter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13940" yWindow="460" windowWidth="13940" windowHeight="17540" tabRatio="762" activeTab="4"/>
+    <workbookView xWindow="13940" yWindow="460" windowWidth="13940" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -305,9 +305,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -550,6 +547,10 @@
   <si>
     <t>euro / hhp</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -559,7 +560,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -705,11 +706,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -1380,7 +1376,7 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1391,28 +1387,28 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1455,7 +1451,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1473,7 +1469,7 @@
     <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1511,33 +1507,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1548,33 +1544,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1587,6 +1556,33 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="257">
@@ -1858,83 +1854,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2553,7 +2473,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2562,7 +2482,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2695,14 +2615,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2727,28 +2647,28 @@
       <c r="G1" s="32"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="152" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="154"/>
+      <c r="B2" s="159" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="161"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="157"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="164"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="158"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="160"/>
+    <row r="4" spans="2:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="165"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="167"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
@@ -2801,7 +2721,7 @@
     <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -2814,7 +2734,7 @@
     <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>4</v>
@@ -2826,14 +2746,14 @@
       <c r="G10" s="33"/>
       <c r="H10" s="27"/>
       <c r="I10" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J10" s="42"/>
     </row>
     <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20"/>
       <c r="C11" s="114" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>4</v>
@@ -2845,14 +2765,14 @@
       <c r="G11" s="33"/>
       <c r="H11" s="27"/>
       <c r="I11" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J11" s="42"/>
     </row>
     <row r="12" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20"/>
       <c r="C12" s="114" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>4</v>
@@ -2864,17 +2784,17 @@
       <c r="G12" s="33"/>
       <c r="H12" s="27"/>
       <c r="I12" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J12" s="42"/>
     </row>
     <row r="13" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="20"/>
       <c r="C13" s="120" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="151">
         <f>'Research data'!G7</f>
@@ -2892,10 +2812,10 @@
     <row r="14" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="20"/>
       <c r="C14" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>113</v>
       </c>
       <c r="E14" s="43">
         <f>'Research data'!G8</f>
@@ -2925,7 +2845,7 @@
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J15" s="102"/>
       <c r="K15" s="32"/>
@@ -2945,7 +2865,7 @@
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J16" s="102"/>
       <c r="K16" s="32"/>
@@ -2953,7 +2873,7 @@
     <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
       <c r="C17" s="114" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>4</v>
@@ -2965,7 +2885,7 @@
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J17" s="102"/>
       <c r="K17" s="32"/>
@@ -2985,7 +2905,7 @@
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J18" s="102"/>
       <c r="K18" s="32"/>
@@ -3005,7 +2925,7 @@
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J19" s="102"/>
       <c r="K19" s="32"/>
@@ -3025,7 +2945,7 @@
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
       <c r="I20" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J20" s="102"/>
       <c r="K20" s="32"/>
@@ -3047,7 +2967,7 @@
       </c>
       <c r="H21" s="33"/>
       <c r="I21" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J21" s="102"/>
     </row>
@@ -3069,7 +2989,7 @@
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J22" s="102"/>
     </row>
@@ -3090,7 +3010,7 @@
       </c>
       <c r="H23" s="33"/>
       <c r="I23" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J23" s="102"/>
     </row>
@@ -3111,7 +3031,7 @@
       </c>
       <c r="H24" s="33"/>
       <c r="I24" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J24" s="102"/>
     </row>
@@ -3132,7 +3052,7 @@
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J25" s="102"/>
     </row>
@@ -3153,7 +3073,7 @@
       </c>
       <c r="H26" s="33"/>
       <c r="I26" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J26" s="102"/>
     </row>
@@ -3174,7 +3094,7 @@
       </c>
       <c r="H27" s="33"/>
       <c r="I27" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J27" s="102"/>
     </row>
@@ -3192,7 +3112,7 @@
     <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="37"/>
       <c r="C29" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="97"/>
       <c r="E29" s="98"/>
@@ -3242,7 +3162,7 @@
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J31" s="102"/>
     </row>
@@ -3286,7 +3206,7 @@
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J33" s="102"/>
     </row>
@@ -3330,7 +3250,7 @@
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J35" s="102"/>
     </row>
@@ -3351,7 +3271,7 @@
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J36" s="102"/>
     </row>
@@ -3372,7 +3292,7 @@
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J37" s="102"/>
     </row>
@@ -3391,7 +3311,7 @@
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
       <c r="I38" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J38" s="102"/>
     </row>
@@ -3437,7 +3357,7 @@
       </c>
       <c r="H41" s="33"/>
       <c r="I41" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J41" s="102"/>
     </row>
@@ -3459,7 +3379,7 @@
       </c>
       <c r="H42" s="33"/>
       <c r="I42" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J42" s="102"/>
     </row>
@@ -3481,7 +3401,7 @@
       </c>
       <c r="H43" s="33"/>
       <c r="I43" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J43" s="102"/>
     </row>
@@ -3500,14 +3420,14 @@
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
       <c r="I44" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J44" s="102"/>
     </row>
     <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="37"/>
       <c r="C45" s="110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="96">
@@ -3517,14 +3437,14 @@
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
       <c r="I45" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J45" s="102"/>
     </row>
     <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="37"/>
       <c r="C46" s="110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="96">
@@ -3534,14 +3454,14 @@
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
       <c r="I46" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J46" s="102"/>
     </row>
     <row r="47" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="37"/>
       <c r="C47" s="110" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="96">
@@ -3551,14 +3471,14 @@
       <c r="G47" s="33"/>
       <c r="H47" s="33"/>
       <c r="I47" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J47" s="102"/>
     </row>
     <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="37"/>
       <c r="C48" s="110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="96">
@@ -3568,14 +3488,14 @@
       <c r="G48" s="33"/>
       <c r="H48" s="33"/>
       <c r="I48" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J48" s="102"/>
     </row>
     <row r="49" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="37"/>
       <c r="C49" s="110" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="96">
@@ -3585,7 +3505,7 @@
       <c r="G49" s="33"/>
       <c r="H49" s="33"/>
       <c r="I49" s="119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J49" s="102"/>
     </row>
@@ -3606,38 +3526,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -3691,7 +3579,7 @@
     <row r="3" spans="2:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="105" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3724,7 +3612,7 @@
       </c>
       <c r="N3" s="58"/>
       <c r="O3" s="105" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
@@ -3746,7 +3634,7 @@
     <row r="5" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="67"/>
       <c r="C5" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3764,7 +3652,7 @@
     <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="67"/>
       <c r="C6" s="115" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="70"/>
       <c r="E6" s="70"/>
@@ -3833,18 +3721,18 @@
       <c r="H8" s="72"/>
       <c r="I8" s="72"/>
       <c r="J8" s="72"/>
-      <c r="K8" s="165">
+      <c r="K8" s="156">
         <f>Notes!E103</f>
         <v>60055.755466803734</v>
       </c>
-      <c r="L8" s="165">
+      <c r="L8" s="156">
         <f>Notes!E72</f>
         <v>50713.749060856491</v>
       </c>
       <c r="M8" s="72"/>
       <c r="N8" s="69"/>
       <c r="O8" s="120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
@@ -3884,7 +3772,7 @@
     <row r="11" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="67"/>
       <c r="C11" s="78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -3900,7 +3788,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
-      <c r="M11" s="166">
+      <c r="M11" s="157">
         <v>0</v>
       </c>
       <c r="N11" s="12"/>
@@ -3909,7 +3797,7 @@
     <row r="12" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="67"/>
       <c r="C12" s="78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -3925,7 +3813,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
-      <c r="M12" s="166">
+      <c r="M12" s="157">
         <v>0</v>
       </c>
       <c r="N12" s="12"/>
@@ -3950,7 +3838,7 @@
       <c r="J13" s="73"/>
       <c r="K13" s="73"/>
       <c r="L13" s="73"/>
-      <c r="M13" s="167">
+      <c r="M13" s="158">
         <v>15</v>
       </c>
       <c r="N13" s="74"/>
@@ -3975,7 +3863,7 @@
     <row r="15" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="67"/>
       <c r="C15" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -4006,7 +3894,7 @@
         <v>12746.431254695717</v>
       </c>
       <c r="H16" s="12"/>
-      <c r="I16" s="167">
+      <c r="I16" s="158">
         <f>Notes!E61</f>
         <v>12746.431254695717</v>
       </c>
@@ -4020,19 +3908,19 @@
     <row r="17" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="67"/>
       <c r="C17" s="107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="111" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G17" s="77">
         <f>I17</f>
         <v>100</v>
       </c>
       <c r="H17" s="12"/>
-      <c r="I17" s="167">
+      <c r="I17" s="158">
         <f>Notes!E63</f>
         <v>100</v>
       </c>
@@ -4056,7 +3944,7 @@
         <f>I18</f>
         <v>1500</v>
       </c>
-      <c r="I18" s="167">
+      <c r="I18" s="158">
         <f>Notes!E62</f>
         <v>1500</v>
       </c>
@@ -4147,13 +4035,13 @@
         <v>29</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>57</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K5" s="130" t="s">
         <v>15</v>
@@ -4179,22 +4067,22 @@
       </c>
       <c r="D7" s="122"/>
       <c r="E7" s="122" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="122" t="s">
         <v>115</v>
-      </c>
-      <c r="F7" s="122" t="s">
-        <v>116</v>
       </c>
       <c r="G7" s="122">
         <v>2010</v>
       </c>
       <c r="H7" s="122" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I7" s="123">
         <v>42948</v>
       </c>
       <c r="J7" s="124" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K7" s="125"/>
     </row>
@@ -4218,10 +4106,10 @@
       </c>
       <c r="D9" s="122"/>
       <c r="E9" s="122" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F9" s="122" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G9" s="122"/>
       <c r="H9" s="122"/>
@@ -4229,10 +4117,10 @@
         <v>42948</v>
       </c>
       <c r="J9" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="125" t="s">
         <v>120</v>
-      </c>
-      <c r="K9" s="125" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
@@ -4300,23 +4188,23 @@
       </c>
       <c r="D14" s="122"/>
       <c r="E14" s="122" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F14" s="122" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="122" t="s">
-        <v>117</v>
-      </c>
       <c r="H14" s="122" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I14" s="123">
         <v>42979</v>
       </c>
       <c r="J14" s="121"/>
       <c r="K14" s="125" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
@@ -4339,23 +4227,23 @@
       </c>
       <c r="D16" s="122"/>
       <c r="E16" s="122" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" s="122" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="122" t="s">
-        <v>117</v>
-      </c>
       <c r="H16" s="122" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I16" s="123">
         <v>42979</v>
       </c>
       <c r="J16" s="121"/>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
@@ -4373,7 +4261,7 @@
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="50"/>
       <c r="C18" s="126" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D18" s="122"/>
       <c r="E18" s="122"/>
@@ -4383,7 +4271,7 @@
       <c r="I18" s="123"/>
       <c r="J18" s="121"/>
       <c r="K18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4412,8 +4300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4448,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -4475,14 +4363,14 @@
         <v>ISSO 72 and Quintel calc</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="137">
         <f>MROUND(E21/1000,0.001)</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F6" s="137" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G6" s="137"/>
       <c r="H6" s="137"/>
@@ -4539,7 +4427,7 @@
       <c r="D11" s="54"/>
       <c r="E11" s="137"/>
       <c r="F11" s="139" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G11" s="137"/>
       <c r="H11" s="137"/>
@@ -4550,13 +4438,13 @@
       <c r="B12" s="136"/>
       <c r="C12" s="14"/>
       <c r="D12" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" s="137">
         <v>80</v>
       </c>
       <c r="F12" s="139" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G12" s="137"/>
       <c r="H12" s="137"/>
@@ -4567,13 +4455,13 @@
       <c r="B13" s="136"/>
       <c r="C13" s="14"/>
       <c r="D13" s="54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E13" s="137">
         <v>115</v>
       </c>
       <c r="F13" s="139" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G13" s="137"/>
       <c r="H13" s="137"/>
@@ -4584,14 +4472,14 @@
       <c r="B14" s="136"/>
       <c r="C14" s="14"/>
       <c r="D14" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="137">
         <f>MROUND(AVERAGE(E12:E13),20)</f>
         <v>100</v>
       </c>
       <c r="F14" s="140" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G14" s="137"/>
       <c r="H14" s="137"/>
@@ -4613,13 +4501,13 @@
       <c r="B16" s="136"/>
       <c r="C16" s="137"/>
       <c r="D16" s="139" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" s="139">
         <v>4.18</v>
       </c>
       <c r="F16" s="139" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G16" s="137"/>
       <c r="H16" s="137"/>
@@ -4630,13 +4518,13 @@
       <c r="B17" s="136"/>
       <c r="C17" s="137"/>
       <c r="D17" s="139" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E17" s="139">
         <v>10</v>
       </c>
       <c r="F17" s="139" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G17" s="137"/>
       <c r="H17" s="137"/>
@@ -4647,13 +4535,13 @@
       <c r="B18" s="136"/>
       <c r="C18" s="137"/>
       <c r="D18" s="139" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18" s="139">
         <v>50</v>
       </c>
       <c r="F18" s="139" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G18" s="137"/>
       <c r="H18" s="137"/>
@@ -4664,14 +4552,14 @@
       <c r="B19" s="136"/>
       <c r="C19" s="137"/>
       <c r="D19" s="139" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E19" s="139">
         <f>E14</f>
         <v>100</v>
       </c>
       <c r="F19" s="139" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G19" s="137"/>
       <c r="H19" s="137"/>
@@ -4682,14 +4570,14 @@
       <c r="B20" s="136"/>
       <c r="C20" s="137"/>
       <c r="D20" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E20" s="141">
         <f>E19*(E18-E17)*E16</f>
         <v>16720</v>
       </c>
       <c r="F20" s="139" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G20" s="137"/>
       <c r="H20" s="137"/>
@@ -4708,7 +4596,7 @@
         <v>4.6444444444444448</v>
       </c>
       <c r="F21" s="139" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G21" s="137"/>
       <c r="H21" s="137"/>
@@ -5103,7 +4991,7 @@
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="136"/>
       <c r="C57" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D57" s="137"/>
       <c r="E57" s="137"/>
@@ -5153,7 +5041,7 @@
         <f>Dashboard!C30</f>
         <v>initial_investment</v>
       </c>
-      <c r="E61" s="164">
+      <c r="E61" s="155">
         <f>E66-E67</f>
         <v>12746.431254695717</v>
       </c>
@@ -5228,7 +5116,7 @@
       <c r="B66" s="136"/>
       <c r="C66" s="137"/>
       <c r="D66" s="137" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E66" s="137">
         <v>13000</v>
@@ -5245,9 +5133,9 @@
       <c r="B67" s="136"/>
       <c r="C67" s="137"/>
       <c r="D67" s="137" t="s">
-        <v>143</v>
-      </c>
-      <c r="E67" s="163">
+        <v>142</v>
+      </c>
+      <c r="E67" s="154">
         <f>E72*E6</f>
         <v>253.56874530428246</v>
       </c>
@@ -5306,18 +5194,18 @@
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="136"/>
       <c r="C72" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D72" s="142" t="str">
         <f>Dashboard!C$14</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="E72" s="161">
+      <c r="E72" s="152">
         <f>E76*E77</f>
         <v>50713.749060856491</v>
       </c>
       <c r="F72" s="139" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G72" s="137"/>
       <c r="H72" s="137"/>
@@ -5328,13 +5216,13 @@
       <c r="B73" s="136"/>
       <c r="C73" s="137"/>
       <c r="D73" s="137" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E73" s="137">
         <v>200</v>
       </c>
       <c r="F73" s="137" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G73" s="137"/>
       <c r="H73" s="137"/>
@@ -5345,7 +5233,7 @@
       <c r="B74" s="136"/>
       <c r="C74" s="137"/>
       <c r="D74" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E74" s="137">
         <v>570</v>
@@ -5362,9 +5250,9 @@
       <c r="B75" s="136"/>
       <c r="C75" s="137"/>
       <c r="D75" s="137" t="s">
-        <v>147</v>
-      </c>
-      <c r="E75" s="162">
+        <v>146</v>
+      </c>
+      <c r="E75" s="153">
         <f>E74/1.21</f>
         <v>471.07438016528926</v>
       </c>
@@ -5380,14 +5268,14 @@
       <c r="B76" s="136"/>
       <c r="C76" s="137"/>
       <c r="D76" s="137" t="s">
-        <v>149</v>
-      </c>
-      <c r="E76" s="163">
+        <v>148</v>
+      </c>
+      <c r="E76" s="154">
         <f>E75/E73</f>
         <v>2.3553719008264462</v>
       </c>
       <c r="F76" s="137" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G76" s="137"/>
       <c r="H76" s="137"/>
@@ -5398,14 +5286,14 @@
       <c r="B77" s="136"/>
       <c r="C77" s="137"/>
       <c r="D77" s="137" t="s">
-        <v>151</v>
-      </c>
-      <c r="E77" s="162">
+        <v>150</v>
+      </c>
+      <c r="E77" s="153">
         <f>E$19/E$21*1000</f>
         <v>21531.100478468896</v>
       </c>
       <c r="F77" s="137" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G77" s="137"/>
       <c r="H77" s="137"/>
@@ -5416,14 +5304,14 @@
       <c r="B78" s="136"/>
       <c r="C78" s="137"/>
       <c r="D78" s="137" t="s">
-        <v>153</v>
-      </c>
-      <c r="E78" s="162">
+        <v>152</v>
+      </c>
+      <c r="E78" s="153">
         <f>E72*E$6</f>
         <v>253.56874530428246</v>
       </c>
       <c r="F78" s="137" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G78" s="137"/>
       <c r="H78" s="137"/>
@@ -5434,7 +5322,7 @@
       <c r="B79" s="136"/>
       <c r="C79" s="137"/>
       <c r="D79" s="137"/>
-      <c r="E79" s="162"/>
+      <c r="E79" s="153"/>
       <c r="F79" s="137"/>
       <c r="G79" s="137"/>
       <c r="H79" s="137"/>
@@ -5445,7 +5333,7 @@
       <c r="B80" s="136"/>
       <c r="C80" s="137"/>
       <c r="D80" s="137"/>
-      <c r="E80" s="162"/>
+      <c r="E80" s="153"/>
       <c r="F80" s="137"/>
       <c r="G80" s="137"/>
       <c r="H80" s="137"/>
@@ -5456,7 +5344,7 @@
       <c r="B81" s="136"/>
       <c r="C81" s="137"/>
       <c r="D81" s="137"/>
-      <c r="E81" s="162"/>
+      <c r="E81" s="153"/>
       <c r="F81" s="137"/>
       <c r="G81" s="137"/>
       <c r="H81" s="137"/>
@@ -5467,7 +5355,7 @@
       <c r="B82" s="136"/>
       <c r="C82" s="137"/>
       <c r="D82" s="137"/>
-      <c r="E82" s="162"/>
+      <c r="E82" s="153"/>
       <c r="F82" s="137"/>
       <c r="G82" s="137"/>
       <c r="H82" s="137"/>
@@ -5478,7 +5366,7 @@
       <c r="B83" s="136"/>
       <c r="C83" s="137"/>
       <c r="D83" s="137"/>
-      <c r="E83" s="162"/>
+      <c r="E83" s="153"/>
       <c r="F83" s="137"/>
       <c r="G83" s="137"/>
       <c r="H83" s="137"/>
@@ -5489,7 +5377,7 @@
       <c r="B84" s="136"/>
       <c r="C84" s="137"/>
       <c r="D84" s="137"/>
-      <c r="E84" s="162"/>
+      <c r="E84" s="153"/>
       <c r="F84" s="137"/>
       <c r="G84" s="137"/>
       <c r="H84" s="137"/>
@@ -5500,7 +5388,7 @@
       <c r="B85" s="136"/>
       <c r="C85" s="137"/>
       <c r="D85" s="137"/>
-      <c r="E85" s="162"/>
+      <c r="E85" s="153"/>
       <c r="F85" s="137"/>
       <c r="G85" s="137"/>
       <c r="H85" s="137"/>
@@ -5511,7 +5399,7 @@
       <c r="B86" s="136"/>
       <c r="C86" s="137"/>
       <c r="D86" s="137"/>
-      <c r="E86" s="162"/>
+      <c r="E86" s="153"/>
       <c r="F86" s="137"/>
       <c r="G86" s="137"/>
       <c r="H86" s="137"/>
@@ -5522,7 +5410,7 @@
       <c r="B87" s="136"/>
       <c r="C87" s="137"/>
       <c r="D87" s="137"/>
-      <c r="E87" s="162"/>
+      <c r="E87" s="153"/>
       <c r="F87" s="137"/>
       <c r="G87" s="137"/>
       <c r="H87" s="137"/>
@@ -5533,7 +5421,7 @@
       <c r="B88" s="136"/>
       <c r="C88" s="137"/>
       <c r="D88" s="137"/>
-      <c r="E88" s="162"/>
+      <c r="E88" s="153"/>
       <c r="F88" s="137"/>
       <c r="G88" s="137"/>
       <c r="H88" s="137"/>
@@ -5544,7 +5432,7 @@
       <c r="B89" s="136"/>
       <c r="C89" s="137"/>
       <c r="D89" s="137"/>
-      <c r="E89" s="162"/>
+      <c r="E89" s="153"/>
       <c r="F89" s="137"/>
       <c r="G89" s="137"/>
       <c r="H89" s="137"/>
@@ -5555,7 +5443,7 @@
       <c r="B90" s="136"/>
       <c r="C90" s="137"/>
       <c r="D90" s="137"/>
-      <c r="E90" s="162"/>
+      <c r="E90" s="153"/>
       <c r="F90" s="137"/>
       <c r="G90" s="137"/>
       <c r="H90" s="137"/>
@@ -5566,7 +5454,7 @@
       <c r="B91" s="136"/>
       <c r="C91" s="137"/>
       <c r="D91" s="137"/>
-      <c r="E91" s="162"/>
+      <c r="E91" s="153"/>
       <c r="F91" s="137"/>
       <c r="G91" s="137"/>
       <c r="H91" s="137"/>
@@ -5577,7 +5465,7 @@
       <c r="B92" s="136"/>
       <c r="C92" s="137"/>
       <c r="D92" s="137"/>
-      <c r="E92" s="162"/>
+      <c r="E92" s="153"/>
       <c r="F92" s="137"/>
       <c r="G92" s="137"/>
       <c r="H92" s="137"/>
@@ -5588,7 +5476,7 @@
       <c r="B93" s="136"/>
       <c r="C93" s="137"/>
       <c r="D93" s="137"/>
-      <c r="E93" s="162"/>
+      <c r="E93" s="153"/>
       <c r="F93" s="137"/>
       <c r="G93" s="137"/>
       <c r="H93" s="137"/>
@@ -5599,7 +5487,7 @@
       <c r="B94" s="136"/>
       <c r="C94" s="137"/>
       <c r="D94" s="137"/>
-      <c r="E94" s="162"/>
+      <c r="E94" s="153"/>
       <c r="F94" s="137"/>
       <c r="G94" s="137"/>
       <c r="H94" s="137"/>
@@ -5610,7 +5498,7 @@
       <c r="B95" s="136"/>
       <c r="C95" s="137"/>
       <c r="D95" s="137"/>
-      <c r="E95" s="162"/>
+      <c r="E95" s="153"/>
       <c r="F95" s="137"/>
       <c r="G95" s="137"/>
       <c r="H95" s="137"/>
@@ -5621,7 +5509,7 @@
       <c r="B96" s="136"/>
       <c r="C96" s="137"/>
       <c r="D96" s="137"/>
-      <c r="E96" s="162"/>
+      <c r="E96" s="153"/>
       <c r="F96" s="137"/>
       <c r="G96" s="137"/>
       <c r="H96" s="137"/>
@@ -5632,7 +5520,7 @@
       <c r="B97" s="136"/>
       <c r="C97" s="137"/>
       <c r="D97" s="137"/>
-      <c r="E97" s="162"/>
+      <c r="E97" s="153"/>
       <c r="F97" s="137"/>
       <c r="G97" s="137"/>
       <c r="H97" s="137"/>
@@ -5643,7 +5531,7 @@
       <c r="B98" s="136"/>
       <c r="C98" s="137"/>
       <c r="D98" s="137"/>
-      <c r="E98" s="162"/>
+      <c r="E98" s="153"/>
       <c r="F98" s="137"/>
       <c r="G98" s="137"/>
       <c r="H98" s="137"/>
@@ -5654,7 +5542,7 @@
       <c r="B99" s="136"/>
       <c r="C99" s="137"/>
       <c r="D99" s="137"/>
-      <c r="E99" s="162"/>
+      <c r="E99" s="153"/>
       <c r="F99" s="137"/>
       <c r="G99" s="137"/>
       <c r="H99" s="137"/>
@@ -5665,7 +5553,7 @@
       <c r="B100" s="136"/>
       <c r="C100" s="137"/>
       <c r="D100" s="137"/>
-      <c r="E100" s="162"/>
+      <c r="E100" s="153"/>
       <c r="F100" s="137"/>
       <c r="G100" s="137"/>
       <c r="H100" s="137"/>
@@ -5676,7 +5564,7 @@
       <c r="B101" s="136"/>
       <c r="C101" s="137"/>
       <c r="D101" s="137"/>
-      <c r="E101" s="162"/>
+      <c r="E101" s="153"/>
       <c r="F101" s="137"/>
       <c r="G101" s="137"/>
       <c r="H101" s="137"/>
@@ -5687,7 +5575,7 @@
       <c r="B102" s="136"/>
       <c r="C102" s="137"/>
       <c r="D102" s="137"/>
-      <c r="E102" s="162"/>
+      <c r="E102" s="153"/>
       <c r="F102" s="137"/>
       <c r="G102" s="137"/>
       <c r="H102" s="137"/>
@@ -5697,18 +5585,18 @@
     <row r="103" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B103" s="136"/>
       <c r="C103" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D103" s="142" t="str">
         <f>Dashboard!C$14</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="E103" s="161">
+      <c r="E103" s="152">
         <f>E107*E108</f>
         <v>60055.755466803734</v>
       </c>
       <c r="F103" s="139" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G103" s="137"/>
       <c r="H103" s="137"/>
@@ -5719,13 +5607,13 @@
       <c r="B104" s="136"/>
       <c r="C104" s="137"/>
       <c r="D104" s="137" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E104" s="137">
         <v>120</v>
       </c>
       <c r="F104" s="137" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G104" s="137"/>
       <c r="H104" s="137"/>
@@ -5736,7 +5624,7 @@
       <c r="B105" s="136"/>
       <c r="C105" s="137"/>
       <c r="D105" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E105" s="137">
         <v>405</v>
@@ -5753,9 +5641,9 @@
       <c r="B106" s="136"/>
       <c r="C106" s="137"/>
       <c r="D106" s="137" t="s">
-        <v>147</v>
-      </c>
-      <c r="E106" s="162">
+        <v>146</v>
+      </c>
+      <c r="E106" s="153">
         <f>E105/1.21</f>
         <v>334.71074380165288</v>
       </c>
@@ -5771,14 +5659,14 @@
       <c r="B107" s="136"/>
       <c r="C107" s="137"/>
       <c r="D107" s="137" t="s">
-        <v>149</v>
-      </c>
-      <c r="E107" s="163">
+        <v>148</v>
+      </c>
+      <c r="E107" s="154">
         <f>E106/E104</f>
         <v>2.7892561983471071</v>
       </c>
       <c r="F107" s="137" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G107" s="137"/>
       <c r="H107" s="137"/>
@@ -5789,14 +5677,14 @@
       <c r="B108" s="136"/>
       <c r="C108" s="137"/>
       <c r="D108" s="137" t="s">
-        <v>151</v>
-      </c>
-      <c r="E108" s="162">
+        <v>150</v>
+      </c>
+      <c r="E108" s="153">
         <f>E$19/E$21*1000</f>
         <v>21531.100478468896</v>
       </c>
       <c r="F108" s="137" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G108" s="137"/>
       <c r="H108" s="137"/>
@@ -5807,14 +5695,14 @@
       <c r="B109" s="136"/>
       <c r="C109" s="137"/>
       <c r="D109" s="137" t="s">
-        <v>153</v>
-      </c>
-      <c r="E109" s="162">
+        <v>152</v>
+      </c>
+      <c r="E109" s="153">
         <f>E103*E$6</f>
         <v>300.27877733401868</v>
       </c>
       <c r="F109" s="137" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G109" s="137"/>
       <c r="H109" s="137"/>
@@ -5825,7 +5713,7 @@
       <c r="B110" s="136"/>
       <c r="C110" s="137"/>
       <c r="D110" s="137"/>
-      <c r="E110" s="162"/>
+      <c r="E110" s="153"/>
       <c r="F110" s="137"/>
       <c r="G110" s="137"/>
       <c r="H110" s="137"/>
@@ -5836,7 +5724,7 @@
       <c r="B111" s="136"/>
       <c r="C111" s="137"/>
       <c r="D111" s="137"/>
-      <c r="E111" s="162"/>
+      <c r="E111" s="153"/>
       <c r="F111" s="137"/>
       <c r="G111" s="137"/>
       <c r="H111" s="137"/>
@@ -5847,7 +5735,7 @@
       <c r="B112" s="136"/>
       <c r="C112" s="137"/>
       <c r="D112" s="137"/>
-      <c r="E112" s="162"/>
+      <c r="E112" s="153"/>
       <c r="F112" s="137"/>
       <c r="G112" s="137"/>
       <c r="H112" s="137"/>
@@ -5858,7 +5746,7 @@
       <c r="B113" s="136"/>
       <c r="C113" s="137"/>
       <c r="D113" s="137"/>
-      <c r="E113" s="162"/>
+      <c r="E113" s="153"/>
       <c r="F113" s="137"/>
       <c r="G113" s="137"/>
       <c r="H113" s="137"/>
@@ -5869,7 +5757,7 @@
       <c r="B114" s="136"/>
       <c r="C114" s="137"/>
       <c r="D114" s="137"/>
-      <c r="E114" s="162"/>
+      <c r="E114" s="153"/>
       <c r="F114" s="137"/>
       <c r="G114" s="137"/>
       <c r="H114" s="137"/>
@@ -5880,7 +5768,7 @@
       <c r="B115" s="136"/>
       <c r="C115" s="137"/>
       <c r="D115" s="137"/>
-      <c r="E115" s="162"/>
+      <c r="E115" s="153"/>
       <c r="F115" s="137"/>
       <c r="G115" s="137"/>
       <c r="H115" s="137"/>
@@ -5891,7 +5779,7 @@
       <c r="B116" s="136"/>
       <c r="C116" s="137"/>
       <c r="D116" s="137"/>
-      <c r="E116" s="162"/>
+      <c r="E116" s="153"/>
       <c r="F116" s="137"/>
       <c r="G116" s="137"/>
       <c r="H116" s="137"/>
@@ -5902,7 +5790,7 @@
       <c r="B117" s="136"/>
       <c r="C117" s="137"/>
       <c r="D117" s="137"/>
-      <c r="E117" s="162"/>
+      <c r="E117" s="153"/>
       <c r="F117" s="137"/>
       <c r="G117" s="137"/>
       <c r="H117" s="137"/>
@@ -5913,7 +5801,7 @@
       <c r="B118" s="136"/>
       <c r="C118" s="137"/>
       <c r="D118" s="137"/>
-      <c r="E118" s="162"/>
+      <c r="E118" s="153"/>
       <c r="F118" s="137"/>
       <c r="G118" s="137"/>
       <c r="H118" s="137"/>
@@ -5924,7 +5812,7 @@
       <c r="B119" s="136"/>
       <c r="C119" s="137"/>
       <c r="D119" s="137"/>
-      <c r="E119" s="162"/>
+      <c r="E119" s="153"/>
       <c r="F119" s="137"/>
       <c r="G119" s="137"/>
       <c r="H119" s="137"/>
@@ -5935,7 +5823,7 @@
       <c r="B120" s="136"/>
       <c r="C120" s="137"/>
       <c r="D120" s="137"/>
-      <c r="E120" s="162"/>
+      <c r="E120" s="153"/>
       <c r="F120" s="137"/>
       <c r="G120" s="137"/>
       <c r="H120" s="137"/>
@@ -5946,7 +5834,7 @@
       <c r="B121" s="136"/>
       <c r="C121" s="137"/>
       <c r="D121" s="137"/>
-      <c r="E121" s="162"/>
+      <c r="E121" s="153"/>
       <c r="F121" s="137"/>
       <c r="G121" s="137"/>
       <c r="H121" s="137"/>
@@ -5957,7 +5845,7 @@
       <c r="B122" s="136"/>
       <c r="C122" s="137"/>
       <c r="D122" s="137"/>
-      <c r="E122" s="162"/>
+      <c r="E122" s="153"/>
       <c r="F122" s="137"/>
       <c r="G122" s="137"/>
       <c r="H122" s="137"/>
@@ -5968,7 +5856,7 @@
       <c r="B123" s="136"/>
       <c r="C123" s="137"/>
       <c r="D123" s="137"/>
-      <c r="E123" s="162"/>
+      <c r="E123" s="153"/>
       <c r="F123" s="137"/>
       <c r="G123" s="137"/>
       <c r="H123" s="137"/>

--- a/nodes_source_analyses/households/households_water_heater_heatpump_ground_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_water_heater_heatpump_ground_water_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A1F2CF-FE56-D045-86B3-32D7C83B0E4D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAAE38E-0D7E-6F4E-A4EF-DE2B3B179575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13940" yWindow="460" windowWidth="13940" windowHeight="17540" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -21,7 +21,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -38,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -51,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="161">
   <si>
     <t>Source</t>
   </si>
@@ -297,21 +302,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>hours_prep_nl</t>
-  </si>
-  <si>
-    <t>hours_prod_nl</t>
-  </si>
-  <si>
-    <t>hours_place_nl</t>
-  </si>
-  <si>
-    <t>hours_maint_nl</t>
-  </si>
-  <si>
-    <t>hours_remov_nl</t>
   </si>
   <si>
     <r>
@@ -522,6 +512,69 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
+  <si>
+    <t>Vesta Functioneel Ontwerp 4.0</t>
+  </si>
+  <si>
+    <t>vaste investeringskosten min</t>
+  </si>
+  <si>
+    <t>euro/aansluiting</t>
+  </si>
+  <si>
+    <t>Ki_w_BWP_vast_min</t>
+  </si>
+  <si>
+    <t>variable investeringskosten min</t>
+  </si>
+  <si>
+    <t>euro/kW</t>
+  </si>
+  <si>
+    <t>Ki_w_BWP_var_max</t>
+  </si>
+  <si>
+    <t>totale investeringskosten min</t>
+  </si>
+  <si>
+    <t>vaste investeringskosten max</t>
+  </si>
+  <si>
+    <t>Ki_w_BWP_vast_max</t>
+  </si>
+  <si>
+    <t>variable investeringskosten max</t>
+  </si>
+  <si>
+    <t>Ki_w_BWP_var_min</t>
+  </si>
+  <si>
+    <t>totale investeringskosten max</t>
+  </si>
+  <si>
+    <t>gemiddelde nemen!</t>
+  </si>
+  <si>
+    <t>investment_costs</t>
+  </si>
+  <si>
+    <t>euro/unit</t>
+  </si>
+  <si>
+    <t>dit is inclusief de cost_of_installing, dus die gaat naar nul</t>
+  </si>
+  <si>
+    <t>LETOP: het lijkt erop alsof de variable kosten zijn omgewisseld tussen min/max</t>
+  </si>
+  <si>
+    <t>Vesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no costs to avoid double counting </t>
+  </si>
 </sst>
 </file>
 
@@ -531,12 +584,19 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -662,6 +722,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -669,6 +730,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -676,6 +738,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -683,6 +746,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,6 +754,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -697,17 +762,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -721,6 +789,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -735,6 +804,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1045,519 +1120,528 @@
   </borders>
   <cellStyleXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1843,8 +1927,8 @@
       <xdr:rowOff>138906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>5273698</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3198</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>162145</xdr:rowOff>
     </xdr:to>
@@ -1932,7 +2016,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>5231546</xdr:colOff>
+      <xdr:colOff>4761646</xdr:colOff>
       <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1959,6 +2043,50 @@
         <a:xfrm>
           <a:off x="11988800" y="25412700"/>
           <a:ext cx="6184046" cy="3860800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>109415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49DC8E8D-ABB6-8E42-A732-2F1218019D4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10007600" y="25488900"/>
+          <a:ext cx="10058400" cy="5926015"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2078,33 +2206,6 @@
       <sheetData sheetId="45" refreshError="1"/>
       <sheetData sheetId="46" refreshError="1"/>
       <sheetData sheetId="47" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="Research data"/>
-      <sheetName val="Sources"/>
-      <sheetName val="Notes"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>storage.volume</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2470,7 +2571,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2479,7 +2580,7 @@
         <v>59</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2616,10 +2717,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K45"/>
+  <dimension ref="B1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD27"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -2644,28 +2745,28 @@
       <c r="G1" s="32"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="157" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="159"/>
+      <c r="B2" s="162" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="164"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="162"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="167"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
     <row r="4" spans="2:11" ht="41" customHeight="1">
-      <c r="B4" s="163"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="165"/>
+      <c r="B4" s="168"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="170"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
@@ -2730,8 +2831,8 @@
     </row>
     <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="20"/>
-      <c r="C10" s="112" t="s">
-        <v>88</v>
+      <c r="C10" s="111" t="s">
+        <v>83</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>4</v>
@@ -2742,15 +2843,15 @@
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="117" t="s">
-        <v>99</v>
+      <c r="I10" s="116" t="s">
+        <v>94</v>
       </c>
       <c r="J10" s="42"/>
     </row>
     <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="20"/>
-      <c r="C11" s="112" t="s">
-        <v>89</v>
+      <c r="C11" s="111" t="s">
+        <v>84</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>4</v>
@@ -2761,15 +2862,15 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="27"/>
-      <c r="I11" s="117" t="s">
-        <v>99</v>
+      <c r="I11" s="116" t="s">
+        <v>94</v>
       </c>
       <c r="J11" s="42"/>
     </row>
     <row r="12" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B12" s="20"/>
-      <c r="C12" s="112" t="s">
-        <v>90</v>
+      <c r="C12" s="111" t="s">
+        <v>85</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>4</v>
@@ -2780,27 +2881,27 @@
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="117" t="s">
-        <v>99</v>
+      <c r="I12" s="116" t="s">
+        <v>94</v>
       </c>
       <c r="J12" s="42"/>
     </row>
     <row r="13" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B13" s="20"/>
-      <c r="C13" s="118" t="s">
-        <v>100</v>
+      <c r="C13" s="117" t="s">
+        <v>95</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="149">
+        <v>98</v>
+      </c>
+      <c r="E13" s="148">
         <f>'Research data'!G7</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="117" t="str">
+      <c r="I13" s="116" t="str">
         <f>Sources!E7</f>
         <v>ISSO 72 and Quintel calc</v>
       </c>
@@ -2808,11 +2909,11 @@
     </row>
     <row r="14" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B14" s="20"/>
-      <c r="C14" s="118" t="s">
-        <v>101</v>
+      <c r="C14" s="117" t="s">
+        <v>96</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E14" s="43">
         <f>'Research data'!G8</f>
@@ -2821,7 +2922,7 @@
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="27"/>
-      <c r="I14" s="117" t="str">
+      <c r="I14" s="116" t="str">
         <f>'Research data'!L3</f>
         <v>Zonenboiler-zelfbouw</v>
       </c>
@@ -2841,8 +2942,8 @@
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
-      <c r="I15" s="117" t="s">
-        <v>99</v>
+      <c r="I15" s="116" t="s">
+        <v>94</v>
       </c>
       <c r="J15" s="100"/>
       <c r="K15" s="32"/>
@@ -2861,16 +2962,16 @@
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
-      <c r="I16" s="117" t="s">
-        <v>99</v>
+      <c r="I16" s="116" t="s">
+        <v>94</v>
       </c>
       <c r="J16" s="100"/>
       <c r="K16" s="32"/>
     </row>
     <row r="17" spans="2:11" ht="17" thickBot="1">
       <c r="B17" s="37"/>
-      <c r="C17" s="112" t="s">
-        <v>91</v>
+      <c r="C17" s="111" t="s">
+        <v>86</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>4</v>
@@ -2881,8 +2982,8 @@
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
-      <c r="I17" s="117" t="s">
-        <v>99</v>
+      <c r="I17" s="116" t="s">
+        <v>94</v>
       </c>
       <c r="J17" s="100"/>
       <c r="K17" s="32"/>
@@ -2901,8 +3002,8 @@
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
-      <c r="I18" s="117" t="s">
-        <v>99</v>
+      <c r="I18" s="116" t="s">
+        <v>94</v>
       </c>
       <c r="J18" s="100"/>
       <c r="K18" s="32"/>
@@ -2921,8 +3022,8 @@
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
-      <c r="I19" s="117" t="s">
-        <v>99</v>
+      <c r="I19" s="116" t="s">
+        <v>94</v>
       </c>
       <c r="J19" s="100"/>
       <c r="K19" s="32"/>
@@ -2941,8 +3042,8 @@
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
-      <c r="I20" s="117" t="s">
-        <v>99</v>
+      <c r="I20" s="116" t="s">
+        <v>94</v>
       </c>
       <c r="J20" s="100"/>
       <c r="K20" s="32"/>
@@ -2963,8 +3064,8 @@
         <v>27</v>
       </c>
       <c r="H21" s="33"/>
-      <c r="I21" s="117" t="s">
-        <v>99</v>
+      <c r="I21" s="116" t="s">
+        <v>94</v>
       </c>
       <c r="J21" s="100"/>
     </row>
@@ -2976,7 +3077,7 @@
       <c r="D22" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="148">
         <f>'Research data'!G6</f>
         <v>0.01</v>
       </c>
@@ -2985,8 +3086,8 @@
         <v>52</v>
       </c>
       <c r="H22" s="33"/>
-      <c r="I22" s="117" t="s">
-        <v>99</v>
+      <c r="I22" s="116" t="s">
+        <v>94</v>
       </c>
       <c r="J22" s="100"/>
     </row>
@@ -3023,17 +3124,15 @@
         <v>31</v>
       </c>
       <c r="E25" s="44">
-        <f>'Research data'!G16</f>
-        <v>12746.431254695717</v>
+        <v>0</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33" t="s">
         <v>8</v>
       </c>
       <c r="H25" s="33"/>
-      <c r="I25" s="117" t="str">
-        <f>Sources!E9</f>
-        <v>DHPA</v>
+      <c r="I25" s="161" t="s">
+        <v>160</v>
       </c>
       <c r="J25" s="100"/>
     </row>
@@ -3053,8 +3152,8 @@
         <v>53</v>
       </c>
       <c r="H26" s="33"/>
-      <c r="I26" s="117" t="s">
-        <v>99</v>
+      <c r="I26" s="161" t="s">
+        <v>160</v>
       </c>
       <c r="J26" s="100"/>
     </row>
@@ -3068,16 +3167,15 @@
       </c>
       <c r="E27" s="44">
         <f>'Research data'!G18</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33" t="s">
         <v>23</v>
       </c>
       <c r="H27" s="33"/>
-      <c r="I27" s="117" t="str">
-        <f>Sources!E9</f>
-        <v>DHPA</v>
+      <c r="I27" s="161" t="s">
+        <v>160</v>
       </c>
       <c r="J27" s="100"/>
     </row>
@@ -3097,8 +3195,8 @@
         <v>26</v>
       </c>
       <c r="H28" s="33"/>
-      <c r="I28" s="117" t="s">
-        <v>99</v>
+      <c r="I28" s="161" t="s">
+        <v>160</v>
       </c>
       <c r="J28" s="100"/>
     </row>
@@ -3111,17 +3209,15 @@
         <v>51</v>
       </c>
       <c r="E29" s="94">
-        <f>'Research data'!G17</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33" t="s">
         <v>54</v>
       </c>
       <c r="H29" s="33"/>
-      <c r="I29" s="117" t="str">
-        <f>Sources!E9</f>
-        <v>DHPA</v>
+      <c r="I29" s="161" t="s">
+        <v>160</v>
       </c>
       <c r="J29" s="100"/>
     </row>
@@ -3141,8 +3237,8 @@
         <v>55</v>
       </c>
       <c r="H30" s="33"/>
-      <c r="I30" s="117" t="s">
-        <v>99</v>
+      <c r="I30" s="161" t="s">
+        <v>160</v>
       </c>
       <c r="J30" s="100"/>
     </row>
@@ -3162,8 +3258,8 @@
         <v>56</v>
       </c>
       <c r="H31" s="33"/>
-      <c r="I31" s="117" t="s">
-        <v>99</v>
+      <c r="I31" s="161" t="s">
+        <v>160</v>
       </c>
       <c r="J31" s="100"/>
     </row>
@@ -3176,15 +3272,15 @@
         <v>2</v>
       </c>
       <c r="E32" s="43">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33" t="s">
         <v>22</v>
       </c>
       <c r="H32" s="33"/>
-      <c r="I32" s="117" t="s">
-        <v>99</v>
+      <c r="I32" s="156" t="s">
+        <v>140</v>
       </c>
       <c r="J32" s="100"/>
     </row>
@@ -3202,8 +3298,8 @@
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
-      <c r="I33" s="117" t="s">
-        <v>99</v>
+      <c r="I33" s="116" t="s">
+        <v>94</v>
       </c>
       <c r="J33" s="100"/>
     </row>
@@ -3248,14 +3344,14 @@
         <v>14</v>
       </c>
       <c r="H36" s="33"/>
-      <c r="I36" s="117" t="s">
-        <v>99</v>
+      <c r="I36" s="116" t="s">
+        <v>94</v>
       </c>
       <c r="J36" s="100"/>
     </row>
     <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="37"/>
-      <c r="C37" s="116" t="s">
+      <c r="C37" s="115" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="19" t="s">
@@ -3270,8 +3366,8 @@
         <v>25</v>
       </c>
       <c r="H37" s="33"/>
-      <c r="I37" s="117" t="s">
-        <v>99</v>
+      <c r="I37" s="116" t="s">
+        <v>94</v>
       </c>
       <c r="J37" s="100"/>
     </row>
@@ -3292,8 +3388,8 @@
         <v>24</v>
       </c>
       <c r="H38" s="33"/>
-      <c r="I38" s="117" t="s">
-        <v>99</v>
+      <c r="I38" s="116" t="s">
+        <v>94</v>
       </c>
       <c r="J38" s="100"/>
     </row>
@@ -3311,106 +3407,21 @@
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
-      <c r="I39" s="117" t="s">
-        <v>99</v>
+      <c r="I39" s="116" t="s">
+        <v>94</v>
       </c>
       <c r="J39" s="100"/>
     </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1">
-      <c r="B40" s="37"/>
-      <c r="C40" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="94">
-        <v>6</v>
-      </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="117" t="s">
-        <v>99</v>
-      </c>
-      <c r="J40" s="100"/>
-    </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1">
-      <c r="B41" s="37"/>
-      <c r="C41" s="108" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="94">
-        <v>0</v>
-      </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="117" t="s">
-        <v>99</v>
-      </c>
-      <c r="J41" s="100"/>
-    </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1">
-      <c r="B42" s="37"/>
-      <c r="C42" s="108" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="94">
-        <v>130</v>
-      </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="117" t="s">
-        <v>99</v>
-      </c>
-      <c r="J42" s="100"/>
-    </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1">
-      <c r="B43" s="37"/>
-      <c r="C43" s="108" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="94">
-        <v>4</v>
-      </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="117" t="s">
-        <v>99</v>
-      </c>
-      <c r="J43" s="100"/>
-    </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1">
-      <c r="B44" s="37"/>
-      <c r="C44" s="108" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="94">
-        <v>40</v>
-      </c>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="117" t="s">
-        <v>99</v>
-      </c>
-      <c r="J44" s="100"/>
-    </row>
-    <row r="45" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B45" s="38"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="40"/>
+    <row r="40" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3426,10 +3437,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:O18"/>
+  <dimension ref="B1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -3446,13 +3457,14 @@
     <col min="11" max="11" width="10" style="60" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="60" customWidth="1"/>
     <col min="13" max="13" width="16.5" style="60" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3" style="61" customWidth="1"/>
-    <col min="15" max="15" width="60" style="60" customWidth="1"/>
-    <col min="16" max="16384" width="10.6640625" style="60"/>
+    <col min="14" max="14" width="16.5" style="60" customWidth="1"/>
+    <col min="15" max="15" width="3" style="61" customWidth="1"/>
+    <col min="16" max="16" width="60" style="60" customWidth="1"/>
+    <col min="17" max="16384" width="10.6640625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:16" ht="17" thickBot="1"/>
+    <row r="2" spans="2:16">
       <c r="B2" s="62"/>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -3465,10 +3477,11 @@
       <c r="K2" s="63"/>
       <c r="L2" s="63"/>
       <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="63"/>
-    </row>
-    <row r="3" spans="2:15" s="21" customFormat="1">
+      <c r="N2" s="63"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="63"/>
+    </row>
+    <row r="3" spans="2:16" s="21" customFormat="1">
       <c r="B3" s="20"/>
       <c r="C3" s="103" t="s">
         <v>77</v>
@@ -3498,16 +3511,19 @@
         <f>Sources!E16</f>
         <v>Zonenboiler-zelfbouw</v>
       </c>
-      <c r="M3" s="21" t="str">
+      <c r="M3" s="103" t="str">
         <f>Sources!C18</f>
         <v>Quintel WD</v>
       </c>
-      <c r="N3" s="58"/>
-      <c r="O3" s="103" t="s">
+      <c r="N3" s="103" t="s">
+        <v>159</v>
+      </c>
+      <c r="O3" s="58"/>
+      <c r="P3" s="103" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:16">
       <c r="B4" s="65"/>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
@@ -3520,10 +3536,11 @@
       <c r="K4" s="67"/>
       <c r="L4" s="67"/>
       <c r="M4" s="67"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="9"/>
-    </row>
-    <row r="5" spans="2:15" ht="17" thickBot="1">
+      <c r="N4" s="67"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="2:16" ht="17" thickBot="1">
       <c r="B5" s="65"/>
       <c r="C5" s="29" t="s">
         <v>76</v>
@@ -3539,19 +3556,20 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="59"/>
-    </row>
-    <row r="6" spans="2:15" ht="17" thickBot="1">
+      <c r="O5" s="10"/>
+      <c r="P5" s="59"/>
+    </row>
+    <row r="6" spans="2:16" ht="17" thickBot="1">
       <c r="B6" s="65"/>
-      <c r="C6" s="113" t="s">
-        <v>92</v>
+      <c r="C6" s="112" t="s">
+        <v>87</v>
       </c>
       <c r="D6" s="68"/>
       <c r="E6" s="68"/>
       <c r="F6" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="114">
+      <c r="G6" s="113">
         <f>M6</f>
         <v>0.01</v>
       </c>
@@ -3560,74 +3578,77 @@
       <c r="J6" s="70"/>
       <c r="K6" s="70"/>
       <c r="L6" s="70"/>
-      <c r="M6" s="148">
+      <c r="M6" s="147">
         <v>0.01</v>
       </c>
-      <c r="N6" s="67"/>
-      <c r="O6" s="59"/>
-    </row>
-    <row r="7" spans="2:15" ht="17" thickBot="1">
+      <c r="N6" s="70"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="59"/>
+    </row>
+    <row r="7" spans="2:16" ht="17" thickBot="1">
       <c r="B7" s="65"/>
-      <c r="C7" s="113" t="str">
+      <c r="C7" s="112" t="str">
         <f>Dashboard!C13</f>
         <v>storage.volume</v>
       </c>
       <c r="D7" s="68"/>
       <c r="E7" s="68"/>
-      <c r="F7" s="113" t="str">
+      <c r="F7" s="112" t="str">
         <f>Dashboard!D13</f>
         <v>MWh</v>
       </c>
-      <c r="G7" s="148">
+      <c r="G7" s="147">
         <f>Notes!E6</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H7" s="70"/>
       <c r="I7" s="70"/>
-      <c r="J7" s="148">
+      <c r="J7" s="147">
         <f>Notes!E6</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K7" s="70"/>
       <c r="L7" s="70"/>
       <c r="M7" s="70"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="59"/>
-    </row>
-    <row r="8" spans="2:15" ht="17" thickBot="1">
+      <c r="N7" s="70"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="59"/>
+    </row>
+    <row r="8" spans="2:16" ht="17" thickBot="1">
       <c r="B8" s="65"/>
-      <c r="C8" s="113" t="str">
+      <c r="C8" s="112" t="str">
         <f>Dashboard!C14</f>
         <v>storage.cost_per_mwh</v>
       </c>
       <c r="D8" s="68"/>
       <c r="E8" s="68"/>
-      <c r="F8" s="113" t="str">
+      <c r="F8" s="112" t="str">
         <f>Dashboard!D14</f>
         <v>euro/MWh</v>
       </c>
-      <c r="G8" s="114">
+      <c r="G8" s="113">
         <f>L8</f>
         <v>50713.749060856491</v>
       </c>
       <c r="H8" s="70"/>
       <c r="I8" s="70"/>
       <c r="J8" s="70"/>
-      <c r="K8" s="154">
+      <c r="K8" s="153">
         <f>Notes!E103</f>
         <v>60055.755466803734</v>
       </c>
-      <c r="L8" s="154">
+      <c r="L8" s="153">
         <f>Notes!E72</f>
         <v>50713.749060856491</v>
       </c>
       <c r="M8" s="70"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="118" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
+      <c r="N8" s="70"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="117" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
       <c r="B9" s="65"/>
       <c r="C9" s="73"/>
       <c r="D9" s="73"/>
@@ -3641,9 +3662,10 @@
       <c r="L9" s="71"/>
       <c r="M9" s="71"/>
       <c r="N9" s="71"/>
-      <c r="O9" s="104"/>
-    </row>
-    <row r="10" spans="2:15" ht="17" thickBot="1">
+      <c r="O9" s="71"/>
+      <c r="P9" s="104"/>
+    </row>
+    <row r="10" spans="2:16" ht="17" thickBot="1">
       <c r="B10" s="65"/>
       <c r="C10" s="29" t="s">
         <v>7</v>
@@ -3658,20 +3680,21 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="30"/>
-    </row>
-    <row r="11" spans="2:15" ht="17" thickBot="1">
+      <c r="N10" s="11"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="30"/>
+    </row>
+    <row r="11" spans="2:16" ht="17" thickBot="1">
       <c r="B11" s="65"/>
       <c r="C11" s="76" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
-      <c r="F11" s="115" t="s">
+      <c r="F11" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="110">
+      <c r="G11" s="109">
         <f>M11</f>
         <v>0</v>
       </c>
@@ -3680,23 +3703,24 @@
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
-      <c r="M11" s="155">
+      <c r="M11" s="154">
         <v>0</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="30"/>
-    </row>
-    <row r="12" spans="2:15" ht="17" thickBot="1">
+      <c r="N11" s="159"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="30"/>
+    </row>
+    <row r="12" spans="2:16" ht="17" thickBot="1">
       <c r="B12" s="65"/>
       <c r="C12" s="76" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="110">
+      <c r="G12" s="109">
         <f>M12</f>
         <v>0</v>
       </c>
@@ -3705,13 +3729,14 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
-      <c r="M12" s="155">
+      <c r="M12" s="154">
         <v>0</v>
       </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="30"/>
-    </row>
-    <row r="13" spans="2:15" ht="17" thickBot="1">
+      <c r="N12" s="159"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="30"/>
+    </row>
+    <row r="13" spans="2:16" ht="17" thickBot="1">
       <c r="B13" s="65"/>
       <c r="C13" s="76" t="s">
         <v>5</v>
@@ -3721,7 +3746,7 @@
       <c r="F13" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="110">
+      <c r="G13" s="109">
         <f>M13</f>
         <v>15</v>
       </c>
@@ -3730,13 +3755,14 @@
       <c r="J13" s="71"/>
       <c r="K13" s="71"/>
       <c r="L13" s="71"/>
-      <c r="M13" s="156">
+      <c r="M13" s="155">
         <v>15</v>
       </c>
-      <c r="N13" s="72"/>
-      <c r="O13" s="106"/>
-    </row>
-    <row r="14" spans="2:15">
+      <c r="N13" s="160"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="106"/>
+    </row>
+    <row r="14" spans="2:16">
       <c r="B14" s="65"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
@@ -3749,10 +3775,11 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="59"/>
-    </row>
-    <row r="15" spans="2:15" ht="17" thickBot="1">
+      <c r="N14" s="12"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="59"/>
+    </row>
+    <row r="15" spans="2:16" ht="17" thickBot="1">
       <c r="B15" s="65"/>
       <c r="C15" s="13" t="s">
         <v>78</v>
@@ -3768,9 +3795,10 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="59"/>
-    </row>
-    <row r="16" spans="2:15" ht="17" thickBot="1">
+      <c r="O15" s="12"/>
+      <c r="P15" s="59"/>
+    </row>
+    <row r="16" spans="2:16" ht="17" thickBot="1">
       <c r="B16" s="65"/>
       <c r="C16" s="101" t="str">
         <f>Dashboard!C25</f>
@@ -3782,11 +3810,10 @@
         <v>31</v>
       </c>
       <c r="G16" s="75">
-        <f>I16</f>
-        <v>12746.431254695717</v>
+        <v>0</v>
       </c>
       <c r="H16" s="12"/>
-      <c r="I16" s="156">
+      <c r="I16" s="155">
         <f>Notes!E61</f>
         <v>12746.431254695717</v>
       </c>
@@ -3794,25 +3821,28 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="107"/>
-    </row>
-    <row r="17" spans="2:15" ht="17" thickBot="1">
+      <c r="N16" s="155">
+        <f>Notes!E136</f>
+        <v>13904</v>
+      </c>
+      <c r="O16" s="71"/>
+      <c r="P16" s="107"/>
+    </row>
+    <row r="17" spans="2:16" ht="17" thickBot="1">
       <c r="B17" s="65"/>
       <c r="C17" s="105" t="s">
         <v>79</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
-      <c r="F17" s="109" t="s">
-        <v>87</v>
+      <c r="F17" s="108" t="s">
+        <v>82</v>
       </c>
       <c r="G17" s="75">
-        <f>I17</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="12"/>
-      <c r="I17" s="156">
+      <c r="I17" s="155">
         <f>Notes!E63</f>
         <v>100</v>
       </c>
@@ -3820,10 +3850,11 @@
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="111"/>
-    </row>
-    <row r="18" spans="2:15" ht="17" thickBot="1">
+      <c r="N17" s="12"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="110"/>
+    </row>
+    <row r="18" spans="2:16" ht="17" thickBot="1">
       <c r="C18" s="104" t="str">
         <f>Dashboard!C27</f>
         <v>cost_of_installing</v>
@@ -3833,12 +3864,14 @@
         <v>0</v>
       </c>
       <c r="G18" s="75">
-        <f>I18</f>
-        <v>1500</v>
-      </c>
-      <c r="I18" s="156">
+        <v>0</v>
+      </c>
+      <c r="I18" s="155">
         <f>Notes!E62</f>
         <v>1500</v>
+      </c>
+      <c r="N18" s="155">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3855,7 +3888,7 @@
   <dimension ref="B1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
@@ -3883,7 +3916,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="49"/>
-      <c r="K2" s="126"/>
+      <c r="K2" s="125"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="50"/>
@@ -3897,7 +3930,7 @@
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
       <c r="J3" s="52"/>
-      <c r="K3" s="127"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="50"/>
@@ -3909,7 +3942,7 @@
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
       <c r="J4" s="54"/>
-      <c r="K4" s="127"/>
+      <c r="K4" s="126"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="55"/>
@@ -3927,15 +3960,15 @@
         <v>29</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>57</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="K5" s="128" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="127" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3949,38 +3982,38 @@
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
       <c r="J6" s="54"/>
-      <c r="K6" s="127"/>
+      <c r="K6" s="126"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="50"/>
-      <c r="C7" s="124" t="str">
+      <c r="C7" s="123" t="str">
         <f>Dashboard!C13</f>
         <v>storage.volume</v>
       </c>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="120" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="120">
+      <c r="D7" s="119"/>
+      <c r="E7" s="119" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="119" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="119">
         <v>2010</v>
       </c>
-      <c r="H7" s="120" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="121">
+      <c r="H7" s="119" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="120">
         <v>42948</v>
       </c>
-      <c r="J7" s="122" t="s">
-        <v>107</v>
-      </c>
-      <c r="K7" s="123"/>
+      <c r="J7" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="50"/>
-      <c r="C8" s="125"/>
+      <c r="C8" s="124"/>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
@@ -3988,77 +4021,86 @@
       <c r="H8" s="53"/>
       <c r="I8" s="53"/>
       <c r="J8" s="54"/>
-      <c r="K8" s="127"/>
+      <c r="K8" s="126"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="50"/>
-      <c r="C9" s="124" t="str">
+      <c r="C9" s="123" t="str">
         <f>Dashboard!C15</f>
         <v>availability</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="120" t="s">
+      <c r="D9" s="119"/>
+      <c r="E9" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="119" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="120">
+        <v>42948</v>
+      </c>
+      <c r="J9" s="118" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="122" t="s">
         <v>105</v>
-      </c>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="121">
-        <v>42948</v>
-      </c>
-      <c r="J9" s="119" t="s">
-        <v>109</v>
-      </c>
-      <c r="K9" s="123" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="50"/>
-      <c r="C10" s="124" t="str">
+      <c r="C10" s="123" t="str">
         <f>Dashboard!C25</f>
         <v>initial_investment</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="123"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="158">
+        <v>43800</v>
+      </c>
+      <c r="I10" s="158">
+        <v>43831</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="122"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="50"/>
-      <c r="C11" s="124" t="str">
+      <c r="C11" s="123" t="str">
         <f>Dashboard!C27</f>
         <v>cost_of_installing</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="123"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="122"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="50"/>
-      <c r="C12" s="124" t="str">
+      <c r="C12" s="123" t="str">
         <f>Dashboard!C29</f>
         <v>fixed_operation_and_maintenance_costs_per_year</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="123"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="122"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="50"/>
@@ -4070,117 +4112,117 @@
       <c r="H13" s="53"/>
       <c r="I13" s="53"/>
       <c r="J13" s="54"/>
-      <c r="K13" s="127"/>
+      <c r="K13" s="126"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="50"/>
-      <c r="C14" s="124" t="str">
+      <c r="C14" s="123" t="str">
         <f>Dashboard!C$14</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="120" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="120" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14" s="120" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" s="121">
+      <c r="D14" s="119"/>
+      <c r="E14" s="119" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="119" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="119" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="119" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="120">
         <v>42979</v>
       </c>
-      <c r="J14" s="119"/>
-      <c r="K14" s="123" t="s">
-        <v>128</v>
+      <c r="J14" s="118"/>
+      <c r="K14" s="122" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="50"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="123"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="122"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="50"/>
-      <c r="C16" s="124" t="str">
+      <c r="C16" s="123" t="str">
         <f>Dashboard!C$14</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="120" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="120" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="120" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" s="121">
+      <c r="D16" s="119"/>
+      <c r="E16" s="119" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="119" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="119" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="119" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="120">
         <v>42979</v>
       </c>
-      <c r="J16" s="119"/>
+      <c r="J16" s="118"/>
       <c r="K16" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="50"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="119"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="118"/>
       <c r="K17"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="50"/>
-      <c r="C18" s="124" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="119"/>
+      <c r="C18" s="123" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="118"/>
       <c r="K18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="17" thickBot="1">
-      <c r="B19" s="129"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="132"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="131"/>
     </row>
     <row r="24" spans="2:11" ht="17" thickBot="1"/>
     <row r="25" spans="2:11" ht="17" thickBot="1">
-      <c r="C25" s="117"/>
+      <c r="C25" s="116"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4190,29 +4232,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:K141"/>
+  <dimension ref="A2:K158"/>
   <sheetViews>
-    <sheetView topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="133" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" style="133" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="133" customWidth="1"/>
-    <col min="4" max="4" width="35.83203125" style="133" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="133" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.5" style="133" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="133" customWidth="1"/>
-    <col min="8" max="9" width="10.6640625" style="133"/>
-    <col min="10" max="10" width="62.5" style="133" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="133"/>
+    <col min="1" max="1" width="3.5" style="132" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="132" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="132" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" style="132" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="132" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.5" style="132" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="132" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" style="132"/>
+    <col min="10" max="10" width="62.5" style="132" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="132"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="17" thickBot="1"/>
     <row r="3" spans="2:10">
-      <c r="B3" s="141"/>
+      <c r="B3" s="140"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -4220,7 +4262,7 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="142"/>
+      <c r="J3" s="141"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="92"/>
@@ -4228,1538 +4270,1854 @@
         <v>0</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="143"/>
+      <c r="J4" s="142"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="134"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="136"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="135"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="134"/>
+      <c r="B6" s="133"/>
       <c r="C6" s="14" t="str">
         <f>Sources!E7</f>
         <v>ISSO 72 and Quintel calc</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="135">
+        <v>95</v>
+      </c>
+      <c r="E6" s="134">
         <f>MROUND(E21/1000,0.001)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F6" s="135" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="136"/>
+      <c r="F6" s="134" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="135"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="134"/>
+      <c r="B7" s="133"/>
       <c r="C7" s="14"/>
       <c r="D7" s="54"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="136"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="135"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="134"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="14"/>
       <c r="D8" s="54"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="136"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="135"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="134"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="14"/>
       <c r="D9" s="54"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="136"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="135"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="134"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="14"/>
       <c r="D10" s="54"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="136"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="135"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="134"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="14"/>
       <c r="D11" s="54"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="137" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="136"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="136" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="135"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="134"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="14"/>
       <c r="D12" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="135">
+        <v>106</v>
+      </c>
+      <c r="E12" s="134">
         <v>80</v>
       </c>
-      <c r="F12" s="137" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="136"/>
+      <c r="F12" s="136" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="135"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="134"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="14"/>
       <c r="D13" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="135">
+        <v>108</v>
+      </c>
+      <c r="E13" s="134">
         <v>115</v>
       </c>
-      <c r="F13" s="137" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="136"/>
+      <c r="F13" s="136" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="135"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="134"/>
+      <c r="B14" s="133"/>
       <c r="C14" s="14"/>
       <c r="D14" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="135">
+        <v>109</v>
+      </c>
+      <c r="E14" s="134">
         <f>MROUND(AVERAGE(E12:E13),20)</f>
         <v>100</v>
       </c>
-      <c r="F14" s="138" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="136"/>
+      <c r="F14" s="137" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="135"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="134"/>
+      <c r="B15" s="133"/>
       <c r="C15" s="14"/>
       <c r="D15" s="54"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="136"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="135"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="134"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="137" t="s">
+      <c r="B16" s="133"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="136" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="136">
+        <v>4.18</v>
+      </c>
+      <c r="F16" s="136" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="135"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="133"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="136" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="136">
+        <v>10</v>
+      </c>
+      <c r="F17" s="136" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="135"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="133"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="136" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="136">
+        <v>50</v>
+      </c>
+      <c r="F18" s="136" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="135"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="133"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="136" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="137">
-        <v>4.18</v>
-      </c>
-      <c r="F16" s="137" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="136"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="134"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="137" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="137">
-        <v>10</v>
-      </c>
-      <c r="F17" s="137" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="136"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="134"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="137" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="137">
-        <v>50</v>
-      </c>
-      <c r="F18" s="137" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="136"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="134"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="137" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="137">
+      <c r="E19" s="136">
         <f>E14</f>
         <v>100</v>
       </c>
-      <c r="F19" s="137" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="F19" s="136" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="135"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="134"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="137" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="139">
+      <c r="B20" s="133"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="138">
         <f>E19*(E18-E17)*E16</f>
         <v>16720</v>
       </c>
-      <c r="F20" s="137" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="136"/>
+      <c r="F20" s="136" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="135"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="134"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="140" t="str">
-        <f>'[2]Research data'!C12</f>
-        <v>storage.volume</v>
-      </c>
-      <c r="E21" s="137">
+      <c r="B21" s="133"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="139" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="136">
         <f>(E20/3600)</f>
         <v>4.6444444444444448</v>
       </c>
-      <c r="F21" s="137" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="136"/>
+      <c r="F21" s="136" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="134"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="135"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="134"/>
+      <c r="B22" s="133"/>
       <c r="C22" s="14"/>
       <c r="D22" s="54"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="136"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="135"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="134"/>
+      <c r="B23" s="133"/>
       <c r="C23" s="14"/>
       <c r="D23" s="54"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="136"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="134"/>
+      <c r="J23" s="135"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="134"/>
+      <c r="B24" s="133"/>
       <c r="C24" s="14"/>
       <c r="D24" s="54"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="136"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="135"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="134"/>
+      <c r="B25" s="133"/>
       <c r="C25" s="14"/>
       <c r="D25" s="54"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="136"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="135"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="134"/>
+      <c r="B26" s="133"/>
       <c r="C26" s="14"/>
       <c r="D26" s="54"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="136"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="135"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="134"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="14"/>
       <c r="D27" s="54"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="136"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="135"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="134"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="14"/>
       <c r="D28" s="54"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="136"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="135"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="134"/>
+      <c r="B29" s="133"/>
       <c r="C29" s="14"/>
       <c r="D29" s="54"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="136"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="135"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="134"/>
+      <c r="B30" s="133"/>
       <c r="C30" s="14"/>
       <c r="D30" s="54"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="135"/>
-      <c r="J30" s="136"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="135"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="134"/>
+      <c r="B31" s="133"/>
       <c r="C31" s="14"/>
       <c r="D31" s="54"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="136"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="135"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="134"/>
+      <c r="B32" s="133"/>
       <c r="C32" s="14"/>
       <c r="D32" s="54"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="136"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="134"/>
+      <c r="J32" s="135"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="134"/>
+      <c r="B33" s="133"/>
       <c r="C33" s="14"/>
       <c r="D33" s="54"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="135"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="136"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="134"/>
+      <c r="J33" s="135"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="134"/>
+      <c r="B34" s="133"/>
       <c r="C34" s="14"/>
       <c r="D34" s="54"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="135"/>
-      <c r="J34" s="136"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="134"/>
+      <c r="J34" s="135"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="134"/>
+      <c r="B35" s="133"/>
       <c r="C35" s="14"/>
       <c r="D35" s="54"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="135"/>
-      <c r="H35" s="135"/>
-      <c r="I35" s="135"/>
-      <c r="J35" s="136"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="134"/>
+      <c r="J35" s="135"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="134"/>
+      <c r="B36" s="133"/>
       <c r="C36" s="14"/>
       <c r="D36" s="54"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="135"/>
-      <c r="I36" s="135"/>
-      <c r="J36" s="136"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="134"/>
+      <c r="J36" s="135"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="134"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="135"/>
-      <c r="H37" s="135"/>
-      <c r="I37" s="135"/>
-      <c r="J37" s="136"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="134"/>
+      <c r="I37" s="134"/>
+      <c r="J37" s="135"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="134"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="135"/>
-      <c r="F38" s="135"/>
-      <c r="G38" s="135"/>
-      <c r="H38" s="135"/>
-      <c r="I38" s="135"/>
-      <c r="J38" s="136"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="134"/>
+      <c r="H38" s="134"/>
+      <c r="I38" s="134"/>
+      <c r="J38" s="135"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="134"/>
-      <c r="C39" s="135"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="135"/>
-      <c r="F39" s="135"/>
-      <c r="G39" s="135"/>
-      <c r="H39" s="135"/>
-      <c r="I39" s="135"/>
-      <c r="J39" s="136"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="134"/>
+      <c r="J39" s="135"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="134"/>
-      <c r="C40" s="135"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="135"/>
-      <c r="G40" s="135"/>
-      <c r="H40" s="135"/>
-      <c r="I40" s="135"/>
-      <c r="J40" s="136"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="134"/>
+      <c r="E40" s="134"/>
+      <c r="F40" s="134"/>
+      <c r="G40" s="134"/>
+      <c r="H40" s="134"/>
+      <c r="I40" s="134"/>
+      <c r="J40" s="135"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="134"/>
-      <c r="C41" s="135"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="135"/>
-      <c r="H41" s="135"/>
-      <c r="I41" s="135"/>
-      <c r="J41" s="136"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="134"/>
+      <c r="F41" s="134"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="134"/>
+      <c r="J41" s="135"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="134"/>
-      <c r="C42" s="135"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="135"/>
-      <c r="F42" s="135"/>
-      <c r="G42" s="135"/>
-      <c r="H42" s="135"/>
-      <c r="I42" s="135"/>
-      <c r="J42" s="136"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="134"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="134"/>
+      <c r="H42" s="134"/>
+      <c r="I42" s="134"/>
+      <c r="J42" s="135"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="134"/>
-      <c r="C43" s="135"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="135"/>
-      <c r="G43" s="135"/>
-      <c r="H43" s="135"/>
-      <c r="I43" s="135"/>
-      <c r="J43" s="136"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
+      <c r="G43" s="134"/>
+      <c r="H43" s="134"/>
+      <c r="I43" s="134"/>
+      <c r="J43" s="135"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="134"/>
-      <c r="C44" s="135"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="135"/>
-      <c r="F44" s="135"/>
-      <c r="G44" s="135"/>
-      <c r="H44" s="135"/>
-      <c r="I44" s="135"/>
-      <c r="J44" s="136"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="134"/>
+      <c r="F44" s="134"/>
+      <c r="G44" s="134"/>
+      <c r="H44" s="134"/>
+      <c r="I44" s="134"/>
+      <c r="J44" s="135"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="134"/>
-      <c r="C45" s="135"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="135"/>
-      <c r="F45" s="135"/>
-      <c r="G45" s="135"/>
-      <c r="H45" s="135"/>
-      <c r="I45" s="135"/>
-      <c r="J45" s="136"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
+      <c r="G45" s="134"/>
+      <c r="H45" s="134"/>
+      <c r="I45" s="134"/>
+      <c r="J45" s="135"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="134"/>
-      <c r="C46" s="135"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="135"/>
-      <c r="F46" s="135"/>
-      <c r="G46" s="135"/>
-      <c r="H46" s="135"/>
-      <c r="I46" s="135"/>
-      <c r="J46" s="136"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="134"/>
+      <c r="G46" s="134"/>
+      <c r="H46" s="134"/>
+      <c r="I46" s="134"/>
+      <c r="J46" s="135"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="134"/>
-      <c r="C47" s="135"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="135"/>
-      <c r="F47" s="135"/>
-      <c r="G47" s="135"/>
-      <c r="H47" s="135"/>
-      <c r="I47" s="135"/>
-      <c r="J47" s="136"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
+      <c r="E47" s="134"/>
+      <c r="F47" s="134"/>
+      <c r="G47" s="134"/>
+      <c r="H47" s="134"/>
+      <c r="I47" s="134"/>
+      <c r="J47" s="135"/>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="134"/>
-      <c r="C48" s="135"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="135"/>
-      <c r="F48" s="135"/>
-      <c r="G48" s="135"/>
-      <c r="H48" s="135"/>
-      <c r="I48" s="135"/>
-      <c r="J48" s="136"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
+      <c r="E48" s="134"/>
+      <c r="F48" s="134"/>
+      <c r="G48" s="134"/>
+      <c r="H48" s="134"/>
+      <c r="I48" s="134"/>
+      <c r="J48" s="135"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="134"/>
-      <c r="C49" s="135"/>
-      <c r="D49" s="135"/>
-      <c r="E49" s="135"/>
-      <c r="F49" s="135"/>
-      <c r="G49" s="135"/>
-      <c r="H49" s="135"/>
-      <c r="I49" s="135"/>
-      <c r="J49" s="136"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="134"/>
+      <c r="E49" s="134"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="134"/>
+      <c r="H49" s="134"/>
+      <c r="I49" s="134"/>
+      <c r="J49" s="135"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="134"/>
-      <c r="C50" s="135"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="135"/>
-      <c r="F50" s="135"/>
-      <c r="G50" s="135"/>
-      <c r="H50" s="135"/>
-      <c r="I50" s="135"/>
-      <c r="J50" s="136"/>
+      <c r="B50" s="133"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="134"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="134"/>
+      <c r="I50" s="134"/>
+      <c r="J50" s="135"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="134"/>
-      <c r="C51" s="135"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="135"/>
-      <c r="F51" s="135"/>
-      <c r="G51" s="135"/>
-      <c r="H51" s="135"/>
-      <c r="I51" s="135"/>
-      <c r="J51" s="136"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="134"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="134"/>
+      <c r="H51" s="134"/>
+      <c r="I51" s="134"/>
+      <c r="J51" s="135"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="134"/>
-      <c r="C52" s="135"/>
-      <c r="D52" s="135"/>
-      <c r="E52" s="135"/>
-      <c r="F52" s="135"/>
-      <c r="G52" s="135"/>
-      <c r="H52" s="135"/>
-      <c r="I52" s="135"/>
-      <c r="J52" s="136"/>
+      <c r="B52" s="133"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="134"/>
+      <c r="E52" s="134"/>
+      <c r="F52" s="134"/>
+      <c r="G52" s="134"/>
+      <c r="H52" s="134"/>
+      <c r="I52" s="134"/>
+      <c r="J52" s="135"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="134"/>
-      <c r="C53" s="135"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="135"/>
-      <c r="F53" s="135"/>
-      <c r="G53" s="135"/>
-      <c r="H53" s="135"/>
-      <c r="I53" s="135"/>
-      <c r="J53" s="136"/>
+      <c r="B53" s="133"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="134"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="134"/>
+      <c r="G53" s="134"/>
+      <c r="H53" s="134"/>
+      <c r="I53" s="134"/>
+      <c r="J53" s="135"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="134"/>
-      <c r="C54" s="135"/>
-      <c r="D54" s="135"/>
-      <c r="E54" s="135"/>
-      <c r="F54" s="135"/>
-      <c r="G54" s="135"/>
-      <c r="H54" s="135"/>
-      <c r="I54" s="135"/>
-      <c r="J54" s="136"/>
+      <c r="B54" s="133"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="134"/>
+      <c r="F54" s="134"/>
+      <c r="G54" s="134"/>
+      <c r="H54" s="134"/>
+      <c r="I54" s="134"/>
+      <c r="J54" s="135"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="134"/>
+      <c r="B55" s="133"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="135"/>
-      <c r="F55" s="135"/>
-      <c r="G55" s="135"/>
-      <c r="H55" s="135"/>
-      <c r="I55" s="135"/>
-      <c r="J55" s="136"/>
+      <c r="D55" s="134"/>
+      <c r="E55" s="134"/>
+      <c r="F55" s="134"/>
+      <c r="G55" s="134"/>
+      <c r="H55" s="134"/>
+      <c r="I55" s="134"/>
+      <c r="J55" s="135"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="134"/>
+      <c r="B56" s="133"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="135"/>
-      <c r="F56" s="135"/>
-      <c r="G56" s="135"/>
-      <c r="H56" s="135"/>
-      <c r="I56" s="135"/>
-      <c r="J56" s="136"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="134"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="134"/>
+      <c r="I56" s="134"/>
+      <c r="J56" s="135"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="134"/>
+      <c r="B57" s="133"/>
       <c r="C57" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57" s="135"/>
-      <c r="E57" s="135"/>
-      <c r="F57" s="135"/>
-      <c r="G57" s="135"/>
-      <c r="H57" s="135"/>
-      <c r="I57" s="135"/>
-      <c r="J57" s="136"/>
+        <v>103</v>
+      </c>
+      <c r="D57" s="134"/>
+      <c r="E57" s="134"/>
+      <c r="F57" s="134"/>
+      <c r="G57" s="134"/>
+      <c r="H57" s="134"/>
+      <c r="I57" s="134"/>
+      <c r="J57" s="135"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="134"/>
+      <c r="B58" s="133"/>
       <c r="C58" s="14"/>
-      <c r="D58" s="135"/>
-      <c r="E58" s="135"/>
-      <c r="F58" s="135"/>
-      <c r="G58" s="135"/>
-      <c r="H58" s="135"/>
-      <c r="I58" s="135"/>
-      <c r="J58" s="136"/>
+      <c r="D58" s="134"/>
+      <c r="E58" s="134"/>
+      <c r="F58" s="134"/>
+      <c r="G58" s="134"/>
+      <c r="H58" s="134"/>
+      <c r="I58" s="134"/>
+      <c r="J58" s="135"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="134"/>
-      <c r="C59" s="135"/>
-      <c r="D59" s="135"/>
-      <c r="E59" s="135"/>
-      <c r="F59" s="135"/>
-      <c r="G59" s="135"/>
-      <c r="H59" s="135"/>
-      <c r="I59" s="135"/>
-      <c r="J59" s="136"/>
+      <c r="B59" s="133"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="134"/>
+      <c r="G59" s="134"/>
+      <c r="H59" s="134"/>
+      <c r="I59" s="134"/>
+      <c r="J59" s="135"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="134"/>
-      <c r="C60" s="135"/>
-      <c r="D60" s="145"/>
-      <c r="E60" s="146"/>
-      <c r="F60" s="147"/>
-      <c r="G60" s="147"/>
-      <c r="H60" s="135"/>
-      <c r="I60" s="135"/>
-      <c r="J60" s="136"/>
+      <c r="B60" s="133"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="146"/>
+      <c r="G60" s="146"/>
+      <c r="H60" s="134"/>
+      <c r="I60" s="134"/>
+      <c r="J60" s="135"/>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="134"/>
-      <c r="C61" s="135"/>
-      <c r="D61" s="145" t="str">
+      <c r="B61" s="133"/>
+      <c r="C61" s="134"/>
+      <c r="D61" s="144" t="str">
         <f>Dashboard!C25</f>
         <v>initial_investment</v>
       </c>
-      <c r="E61" s="153">
+      <c r="E61" s="152">
         <f>E66-E67</f>
         <v>12746.431254695717</v>
       </c>
-      <c r="F61" s="135" t="s">
+      <c r="F61" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="G61" s="135"/>
-      <c r="H61" s="135"/>
-      <c r="I61" s="135"/>
-      <c r="J61" s="136"/>
+      <c r="G61" s="134"/>
+      <c r="H61" s="134"/>
+      <c r="I61" s="134"/>
+      <c r="J61" s="135"/>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="134"/>
-      <c r="C62" s="135"/>
-      <c r="D62" s="145" t="str">
+      <c r="B62" s="133"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="144" t="str">
         <f>Dashboard!C27</f>
         <v>cost_of_installing</v>
       </c>
-      <c r="E62" s="135">
+      <c r="E62" s="134">
         <v>1500</v>
       </c>
-      <c r="F62" s="135" t="s">
+      <c r="F62" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="G62" s="135"/>
-      <c r="H62" s="135"/>
-      <c r="I62" s="135"/>
-      <c r="J62" s="136"/>
+      <c r="G62" s="134"/>
+      <c r="H62" s="134"/>
+      <c r="I62" s="134"/>
+      <c r="J62" s="135"/>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="134"/>
-      <c r="C63" s="135"/>
-      <c r="D63" s="145" t="str">
+      <c r="B63" s="133"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="144" t="str">
         <f>Dashboard!C29</f>
         <v>fixed_operation_and_maintenance_costs_per_year</v>
       </c>
-      <c r="E63" s="135">
+      <c r="E63" s="134">
         <v>100</v>
       </c>
-      <c r="F63" s="135" t="s">
+      <c r="F63" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="G63" s="135"/>
-      <c r="H63" s="135"/>
-      <c r="I63" s="135"/>
-      <c r="J63" s="136"/>
+      <c r="G63" s="134"/>
+      <c r="H63" s="134"/>
+      <c r="I63" s="134"/>
+      <c r="J63" s="135"/>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="134"/>
-      <c r="C64" s="135"/>
-      <c r="D64" s="145"/>
-      <c r="E64" s="135"/>
-      <c r="F64" s="135"/>
-      <c r="G64" s="135"/>
-      <c r="H64" s="135"/>
-      <c r="I64" s="135"/>
-      <c r="J64" s="136"/>
+      <c r="B64" s="133"/>
+      <c r="C64" s="134"/>
+      <c r="D64" s="144"/>
+      <c r="E64" s="134"/>
+      <c r="F64" s="134"/>
+      <c r="G64" s="134"/>
+      <c r="H64" s="134"/>
+      <c r="I64" s="134"/>
+      <c r="J64" s="135"/>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" s="134"/>
-      <c r="C65" s="135"/>
-      <c r="D65" s="135"/>
-      <c r="E65" s="135"/>
-      <c r="F65" s="135"/>
-      <c r="G65" s="135"/>
-      <c r="H65" s="135"/>
+      <c r="B65" s="133"/>
+      <c r="C65" s="134"/>
+      <c r="D65" s="134"/>
+      <c r="E65" s="134"/>
+      <c r="F65" s="134"/>
+      <c r="G65" s="134"/>
+      <c r="H65" s="134"/>
       <c r="I65" s="14"/>
-      <c r="J65" s="136"/>
-      <c r="K65" s="135"/>
+      <c r="J65" s="135"/>
+      <c r="K65" s="134"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="134"/>
-      <c r="C66" s="135"/>
-      <c r="D66" s="135" t="s">
-        <v>131</v>
-      </c>
-      <c r="E66" s="135">
+      <c r="B66" s="133"/>
+      <c r="C66" s="134"/>
+      <c r="D66" s="134" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" s="134">
         <v>13000</v>
       </c>
-      <c r="F66" s="135" t="s">
+      <c r="F66" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="G66" s="135"/>
-      <c r="H66" s="135"/>
-      <c r="I66" s="135"/>
-      <c r="J66" s="136"/>
+      <c r="G66" s="134"/>
+      <c r="H66" s="134"/>
+      <c r="I66" s="134"/>
+      <c r="J66" s="135"/>
     </row>
     <row r="67" spans="2:11">
-      <c r="B67" s="134"/>
-      <c r="C67" s="135"/>
-      <c r="D67" s="135" t="s">
-        <v>132</v>
-      </c>
-      <c r="E67" s="152">
+      <c r="B67" s="133"/>
+      <c r="C67" s="134"/>
+      <c r="D67" s="134" t="s">
+        <v>127</v>
+      </c>
+      <c r="E67" s="151">
         <f>E72*E6</f>
         <v>253.56874530428246</v>
       </c>
-      <c r="F67" s="135" t="s">
+      <c r="F67" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="G67" s="135"/>
-      <c r="H67" s="135"/>
-      <c r="I67" s="135"/>
-      <c r="J67" s="136"/>
+      <c r="G67" s="134"/>
+      <c r="H67" s="134"/>
+      <c r="I67" s="134"/>
+      <c r="J67" s="135"/>
     </row>
     <row r="68" spans="2:11">
-      <c r="B68" s="134"/>
-      <c r="C68" s="135"/>
-      <c r="D68" s="144"/>
-      <c r="E68" s="135"/>
-      <c r="F68" s="135"/>
-      <c r="G68" s="135"/>
-      <c r="H68" s="135"/>
-      <c r="I68" s="135"/>
-      <c r="J68" s="136"/>
+      <c r="B68" s="133"/>
+      <c r="C68" s="134"/>
+      <c r="D68" s="143"/>
+      <c r="E68" s="134"/>
+      <c r="F68" s="134"/>
+      <c r="G68" s="134"/>
+      <c r="H68" s="134"/>
+      <c r="I68" s="134"/>
+      <c r="J68" s="135"/>
     </row>
     <row r="69" spans="2:11">
-      <c r="B69" s="134"/>
-      <c r="C69" s="135"/>
-      <c r="D69" s="144"/>
-      <c r="E69" s="135"/>
-      <c r="F69" s="135"/>
-      <c r="G69" s="135"/>
-      <c r="H69" s="135"/>
-      <c r="I69" s="135"/>
-      <c r="J69" s="136"/>
+      <c r="B69" s="133"/>
+      <c r="C69" s="134"/>
+      <c r="D69" s="143"/>
+      <c r="E69" s="134"/>
+      <c r="F69" s="134"/>
+      <c r="G69" s="134"/>
+      <c r="H69" s="134"/>
+      <c r="I69" s="134"/>
+      <c r="J69" s="135"/>
     </row>
     <row r="70" spans="2:11">
-      <c r="B70" s="134"/>
-      <c r="C70" s="135"/>
-      <c r="D70" s="135"/>
-      <c r="E70" s="135"/>
-      <c r="F70" s="135"/>
-      <c r="G70" s="135"/>
-      <c r="H70" s="135"/>
-      <c r="I70" s="135"/>
-      <c r="J70" s="136"/>
+      <c r="B70" s="133"/>
+      <c r="C70" s="134"/>
+      <c r="D70" s="134"/>
+      <c r="E70" s="134"/>
+      <c r="F70" s="134"/>
+      <c r="G70" s="134"/>
+      <c r="H70" s="134"/>
+      <c r="I70" s="134"/>
+      <c r="J70" s="135"/>
     </row>
     <row r="71" spans="2:11">
-      <c r="B71" s="134"/>
-      <c r="C71" s="135"/>
-      <c r="D71" s="135"/>
-      <c r="E71" s="135"/>
-      <c r="F71" s="135"/>
-      <c r="G71" s="135"/>
-      <c r="H71" s="135"/>
-      <c r="I71" s="135"/>
-      <c r="J71" s="136"/>
+      <c r="B71" s="133"/>
+      <c r="C71" s="134"/>
+      <c r="D71" s="134"/>
+      <c r="E71" s="134"/>
+      <c r="F71" s="134"/>
+      <c r="G71" s="134"/>
+      <c r="H71" s="134"/>
+      <c r="I71" s="134"/>
+      <c r="J71" s="135"/>
     </row>
     <row r="72" spans="2:11">
-      <c r="B72" s="134"/>
+      <c r="B72" s="133"/>
       <c r="C72" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D72" s="140" t="str">
+        <v>128</v>
+      </c>
+      <c r="D72" s="139" t="str">
         <f>Dashboard!C$14</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="E72" s="150">
+      <c r="E72" s="149">
         <f>E76*E77</f>
         <v>50713.749060856491</v>
       </c>
-      <c r="F72" s="137" t="s">
-        <v>102</v>
-      </c>
-      <c r="G72" s="135"/>
-      <c r="H72" s="135"/>
-      <c r="I72" s="135"/>
-      <c r="J72" s="136"/>
+      <c r="F72" s="136" t="s">
+        <v>97</v>
+      </c>
+      <c r="G72" s="134"/>
+      <c r="H72" s="134"/>
+      <c r="I72" s="134"/>
+      <c r="J72" s="135"/>
     </row>
     <row r="73" spans="2:11">
-      <c r="B73" s="134"/>
-      <c r="C73" s="135"/>
-      <c r="D73" s="135" t="s">
-        <v>134</v>
-      </c>
-      <c r="E73" s="135">
+      <c r="B73" s="133"/>
+      <c r="C73" s="134"/>
+      <c r="D73" s="134" t="s">
+        <v>129</v>
+      </c>
+      <c r="E73" s="134">
         <v>200</v>
       </c>
-      <c r="F73" s="135" t="s">
-        <v>112</v>
-      </c>
-      <c r="G73" s="135"/>
-      <c r="H73" s="135"/>
-      <c r="I73" s="135"/>
-      <c r="J73" s="136"/>
+      <c r="F73" s="134" t="s">
+        <v>107</v>
+      </c>
+      <c r="G73" s="134"/>
+      <c r="H73" s="134"/>
+      <c r="I73" s="134"/>
+      <c r="J73" s="135"/>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="134"/>
-      <c r="C74" s="135"/>
-      <c r="D74" s="135" t="s">
-        <v>135</v>
-      </c>
-      <c r="E74" s="135">
+      <c r="B74" s="133"/>
+      <c r="C74" s="134"/>
+      <c r="D74" s="134" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" s="134">
         <v>570</v>
       </c>
-      <c r="F74" s="135" t="s">
+      <c r="F74" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="G74" s="135"/>
-      <c r="H74" s="135"/>
-      <c r="I74" s="135"/>
-      <c r="J74" s="136"/>
+      <c r="G74" s="134"/>
+      <c r="H74" s="134"/>
+      <c r="I74" s="134"/>
+      <c r="J74" s="135"/>
     </row>
     <row r="75" spans="2:11">
-      <c r="B75" s="134"/>
-      <c r="C75" s="135"/>
-      <c r="D75" s="135" t="s">
-        <v>136</v>
-      </c>
-      <c r="E75" s="151">
+      <c r="B75" s="133"/>
+      <c r="C75" s="134"/>
+      <c r="D75" s="134" t="s">
+        <v>131</v>
+      </c>
+      <c r="E75" s="150">
         <f>E74/1.21</f>
         <v>471.07438016528926</v>
       </c>
-      <c r="F75" s="135" t="s">
+      <c r="F75" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="G75" s="135"/>
-      <c r="H75" s="135"/>
-      <c r="I75" s="135"/>
-      <c r="J75" s="136"/>
+      <c r="G75" s="134"/>
+      <c r="H75" s="134"/>
+      <c r="I75" s="134"/>
+      <c r="J75" s="135"/>
     </row>
     <row r="76" spans="2:11">
-      <c r="B76" s="134"/>
-      <c r="C76" s="135"/>
-      <c r="D76" s="135" t="s">
-        <v>138</v>
-      </c>
-      <c r="E76" s="152">
+      <c r="B76" s="133"/>
+      <c r="C76" s="134"/>
+      <c r="D76" s="134" t="s">
+        <v>133</v>
+      </c>
+      <c r="E76" s="151">
         <f>E75/E73</f>
         <v>2.3553719008264462</v>
       </c>
-      <c r="F76" s="135" t="s">
-        <v>139</v>
-      </c>
-      <c r="G76" s="135"/>
-      <c r="H76" s="135"/>
-      <c r="I76" s="135"/>
-      <c r="J76" s="136"/>
+      <c r="F76" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="G76" s="134"/>
+      <c r="H76" s="134"/>
+      <c r="I76" s="134"/>
+      <c r="J76" s="135"/>
     </row>
     <row r="77" spans="2:11">
-      <c r="B77" s="134"/>
-      <c r="C77" s="135"/>
-      <c r="D77" s="135" t="s">
-        <v>140</v>
-      </c>
-      <c r="E77" s="151">
+      <c r="B77" s="133"/>
+      <c r="C77" s="134"/>
+      <c r="D77" s="134" t="s">
+        <v>135</v>
+      </c>
+      <c r="E77" s="150">
         <f>E$19/E$21*1000</f>
         <v>21531.100478468896</v>
       </c>
-      <c r="F77" s="135" t="s">
-        <v>141</v>
-      </c>
-      <c r="G77" s="135"/>
-      <c r="H77" s="135"/>
-      <c r="I77" s="135"/>
-      <c r="J77" s="136"/>
+      <c r="F77" s="134" t="s">
+        <v>136</v>
+      </c>
+      <c r="G77" s="134"/>
+      <c r="H77" s="134"/>
+      <c r="I77" s="134"/>
+      <c r="J77" s="135"/>
     </row>
     <row r="78" spans="2:11">
-      <c r="B78" s="134"/>
-      <c r="C78" s="135"/>
-      <c r="D78" s="135" t="s">
-        <v>142</v>
-      </c>
-      <c r="E78" s="151">
+      <c r="B78" s="133"/>
+      <c r="C78" s="134"/>
+      <c r="D78" s="134" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" s="150">
         <f>E72*E$6</f>
         <v>253.56874530428246</v>
       </c>
-      <c r="F78" s="135" t="s">
-        <v>143</v>
-      </c>
-      <c r="G78" s="135"/>
-      <c r="H78" s="135"/>
-      <c r="I78" s="135"/>
-      <c r="J78" s="136"/>
+      <c r="F78" s="134" t="s">
+        <v>138</v>
+      </c>
+      <c r="G78" s="134"/>
+      <c r="H78" s="134"/>
+      <c r="I78" s="134"/>
+      <c r="J78" s="135"/>
     </row>
     <row r="79" spans="2:11">
-      <c r="B79" s="134"/>
-      <c r="C79" s="135"/>
-      <c r="D79" s="135"/>
-      <c r="E79" s="151"/>
-      <c r="F79" s="135"/>
-      <c r="G79" s="135"/>
-      <c r="H79" s="135"/>
-      <c r="I79" s="135"/>
-      <c r="J79" s="136"/>
+      <c r="B79" s="133"/>
+      <c r="C79" s="134"/>
+      <c r="D79" s="134"/>
+      <c r="E79" s="150"/>
+      <c r="F79" s="134"/>
+      <c r="G79" s="134"/>
+      <c r="H79" s="134"/>
+      <c r="I79" s="134"/>
+      <c r="J79" s="135"/>
     </row>
     <row r="80" spans="2:11">
-      <c r="B80" s="134"/>
-      <c r="C80" s="135"/>
-      <c r="D80" s="135"/>
-      <c r="E80" s="151"/>
-      <c r="F80" s="135"/>
-      <c r="G80" s="135"/>
-      <c r="H80" s="135"/>
-      <c r="I80" s="135"/>
-      <c r="J80" s="136"/>
+      <c r="B80" s="133"/>
+      <c r="C80" s="134"/>
+      <c r="D80" s="134"/>
+      <c r="E80" s="150"/>
+      <c r="F80" s="134"/>
+      <c r="G80" s="134"/>
+      <c r="H80" s="134"/>
+      <c r="I80" s="134"/>
+      <c r="J80" s="135"/>
     </row>
     <row r="81" spans="2:10">
-      <c r="B81" s="134"/>
-      <c r="C81" s="135"/>
-      <c r="D81" s="135"/>
-      <c r="E81" s="151"/>
-      <c r="F81" s="135"/>
-      <c r="G81" s="135"/>
-      <c r="H81" s="135"/>
-      <c r="I81" s="135"/>
-      <c r="J81" s="136"/>
+      <c r="B81" s="133"/>
+      <c r="C81" s="134"/>
+      <c r="D81" s="134"/>
+      <c r="E81" s="150"/>
+      <c r="F81" s="134"/>
+      <c r="G81" s="134"/>
+      <c r="H81" s="134"/>
+      <c r="I81" s="134"/>
+      <c r="J81" s="135"/>
     </row>
     <row r="82" spans="2:10">
-      <c r="B82" s="134"/>
-      <c r="C82" s="135"/>
-      <c r="D82" s="135"/>
-      <c r="E82" s="151"/>
-      <c r="F82" s="135"/>
-      <c r="G82" s="135"/>
-      <c r="H82" s="135"/>
-      <c r="I82" s="135"/>
-      <c r="J82" s="136"/>
+      <c r="B82" s="133"/>
+      <c r="C82" s="134"/>
+      <c r="D82" s="134"/>
+      <c r="E82" s="150"/>
+      <c r="F82" s="134"/>
+      <c r="G82" s="134"/>
+      <c r="H82" s="134"/>
+      <c r="I82" s="134"/>
+      <c r="J82" s="135"/>
     </row>
     <row r="83" spans="2:10">
-      <c r="B83" s="134"/>
-      <c r="C83" s="135"/>
-      <c r="D83" s="135"/>
-      <c r="E83" s="151"/>
-      <c r="F83" s="135"/>
-      <c r="G83" s="135"/>
-      <c r="H83" s="135"/>
-      <c r="I83" s="135"/>
-      <c r="J83" s="136"/>
+      <c r="B83" s="133"/>
+      <c r="C83" s="134"/>
+      <c r="D83" s="134"/>
+      <c r="E83" s="150"/>
+      <c r="F83" s="134"/>
+      <c r="G83" s="134"/>
+      <c r="H83" s="134"/>
+      <c r="I83" s="134"/>
+      <c r="J83" s="135"/>
     </row>
     <row r="84" spans="2:10">
-      <c r="B84" s="134"/>
-      <c r="C84" s="135"/>
-      <c r="D84" s="135"/>
-      <c r="E84" s="151"/>
-      <c r="F84" s="135"/>
-      <c r="G84" s="135"/>
-      <c r="H84" s="135"/>
-      <c r="I84" s="135"/>
-      <c r="J84" s="136"/>
+      <c r="B84" s="133"/>
+      <c r="C84" s="134"/>
+      <c r="D84" s="134"/>
+      <c r="E84" s="150"/>
+      <c r="F84" s="134"/>
+      <c r="G84" s="134"/>
+      <c r="H84" s="134"/>
+      <c r="I84" s="134"/>
+      <c r="J84" s="135"/>
     </row>
     <row r="85" spans="2:10">
-      <c r="B85" s="134"/>
-      <c r="C85" s="135"/>
-      <c r="D85" s="135"/>
-      <c r="E85" s="151"/>
-      <c r="F85" s="135"/>
-      <c r="G85" s="135"/>
-      <c r="H85" s="135"/>
-      <c r="I85" s="135"/>
-      <c r="J85" s="136"/>
+      <c r="B85" s="133"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="134"/>
+      <c r="E85" s="150"/>
+      <c r="F85" s="134"/>
+      <c r="G85" s="134"/>
+      <c r="H85" s="134"/>
+      <c r="I85" s="134"/>
+      <c r="J85" s="135"/>
     </row>
     <row r="86" spans="2:10">
-      <c r="B86" s="134"/>
-      <c r="C86" s="135"/>
-      <c r="D86" s="135"/>
-      <c r="E86" s="151"/>
-      <c r="F86" s="135"/>
-      <c r="G86" s="135"/>
-      <c r="H86" s="135"/>
-      <c r="I86" s="135"/>
-      <c r="J86" s="136"/>
+      <c r="B86" s="133"/>
+      <c r="C86" s="134"/>
+      <c r="D86" s="134"/>
+      <c r="E86" s="150"/>
+      <c r="F86" s="134"/>
+      <c r="G86" s="134"/>
+      <c r="H86" s="134"/>
+      <c r="I86" s="134"/>
+      <c r="J86" s="135"/>
     </row>
     <row r="87" spans="2:10">
-      <c r="B87" s="134"/>
-      <c r="C87" s="135"/>
-      <c r="D87" s="135"/>
-      <c r="E87" s="151"/>
-      <c r="F87" s="135"/>
-      <c r="G87" s="135"/>
-      <c r="H87" s="135"/>
-      <c r="I87" s="135"/>
-      <c r="J87" s="136"/>
+      <c r="B87" s="133"/>
+      <c r="C87" s="134"/>
+      <c r="D87" s="134"/>
+      <c r="E87" s="150"/>
+      <c r="F87" s="134"/>
+      <c r="G87" s="134"/>
+      <c r="H87" s="134"/>
+      <c r="I87" s="134"/>
+      <c r="J87" s="135"/>
     </row>
     <row r="88" spans="2:10">
-      <c r="B88" s="134"/>
-      <c r="C88" s="135"/>
-      <c r="D88" s="135"/>
-      <c r="E88" s="151"/>
-      <c r="F88" s="135"/>
-      <c r="G88" s="135"/>
-      <c r="H88" s="135"/>
-      <c r="I88" s="135"/>
-      <c r="J88" s="136"/>
+      <c r="B88" s="133"/>
+      <c r="C88" s="134"/>
+      <c r="D88" s="134"/>
+      <c r="E88" s="150"/>
+      <c r="F88" s="134"/>
+      <c r="G88" s="134"/>
+      <c r="H88" s="134"/>
+      <c r="I88" s="134"/>
+      <c r="J88" s="135"/>
     </row>
     <row r="89" spans="2:10">
-      <c r="B89" s="134"/>
-      <c r="C89" s="135"/>
-      <c r="D89" s="135"/>
-      <c r="E89" s="151"/>
-      <c r="F89" s="135"/>
-      <c r="G89" s="135"/>
-      <c r="H89" s="135"/>
-      <c r="I89" s="135"/>
-      <c r="J89" s="136"/>
+      <c r="B89" s="133"/>
+      <c r="C89" s="134"/>
+      <c r="D89" s="134"/>
+      <c r="E89" s="150"/>
+      <c r="F89" s="134"/>
+      <c r="G89" s="134"/>
+      <c r="H89" s="134"/>
+      <c r="I89" s="134"/>
+      <c r="J89" s="135"/>
     </row>
     <row r="90" spans="2:10">
-      <c r="B90" s="134"/>
-      <c r="C90" s="135"/>
-      <c r="D90" s="135"/>
-      <c r="E90" s="151"/>
-      <c r="F90" s="135"/>
-      <c r="G90" s="135"/>
-      <c r="H90" s="135"/>
-      <c r="I90" s="135"/>
-      <c r="J90" s="136"/>
+      <c r="B90" s="133"/>
+      <c r="C90" s="134"/>
+      <c r="D90" s="134"/>
+      <c r="E90" s="150"/>
+      <c r="F90" s="134"/>
+      <c r="G90" s="134"/>
+      <c r="H90" s="134"/>
+      <c r="I90" s="134"/>
+      <c r="J90" s="135"/>
     </row>
     <row r="91" spans="2:10">
-      <c r="B91" s="134"/>
-      <c r="C91" s="135"/>
-      <c r="D91" s="135"/>
-      <c r="E91" s="151"/>
-      <c r="F91" s="135"/>
-      <c r="G91" s="135"/>
-      <c r="H91" s="135"/>
-      <c r="I91" s="135"/>
-      <c r="J91" s="136"/>
+      <c r="B91" s="133"/>
+      <c r="C91" s="134"/>
+      <c r="D91" s="134"/>
+      <c r="E91" s="150"/>
+      <c r="F91" s="134"/>
+      <c r="G91" s="134"/>
+      <c r="H91" s="134"/>
+      <c r="I91" s="134"/>
+      <c r="J91" s="135"/>
     </row>
     <row r="92" spans="2:10">
-      <c r="B92" s="134"/>
-      <c r="C92" s="135"/>
-      <c r="D92" s="135"/>
-      <c r="E92" s="151"/>
-      <c r="F92" s="135"/>
-      <c r="G92" s="135"/>
-      <c r="H92" s="135"/>
-      <c r="I92" s="135"/>
-      <c r="J92" s="136"/>
+      <c r="B92" s="133"/>
+      <c r="C92" s="134"/>
+      <c r="D92" s="134"/>
+      <c r="E92" s="150"/>
+      <c r="F92" s="134"/>
+      <c r="G92" s="134"/>
+      <c r="H92" s="134"/>
+      <c r="I92" s="134"/>
+      <c r="J92" s="135"/>
     </row>
     <row r="93" spans="2:10">
-      <c r="B93" s="134"/>
-      <c r="C93" s="135"/>
-      <c r="D93" s="135"/>
-      <c r="E93" s="151"/>
-      <c r="F93" s="135"/>
-      <c r="G93" s="135"/>
-      <c r="H93" s="135"/>
-      <c r="I93" s="135"/>
-      <c r="J93" s="136"/>
+      <c r="B93" s="133"/>
+      <c r="C93" s="134"/>
+      <c r="D93" s="134"/>
+      <c r="E93" s="150"/>
+      <c r="F93" s="134"/>
+      <c r="G93" s="134"/>
+      <c r="H93" s="134"/>
+      <c r="I93" s="134"/>
+      <c r="J93" s="135"/>
     </row>
     <row r="94" spans="2:10">
-      <c r="B94" s="134"/>
-      <c r="C94" s="135"/>
-      <c r="D94" s="135"/>
-      <c r="E94" s="151"/>
-      <c r="F94" s="135"/>
-      <c r="G94" s="135"/>
-      <c r="H94" s="135"/>
-      <c r="I94" s="135"/>
-      <c r="J94" s="136"/>
+      <c r="B94" s="133"/>
+      <c r="C94" s="134"/>
+      <c r="D94" s="134"/>
+      <c r="E94" s="150"/>
+      <c r="F94" s="134"/>
+      <c r="G94" s="134"/>
+      <c r="H94" s="134"/>
+      <c r="I94" s="134"/>
+      <c r="J94" s="135"/>
     </row>
     <row r="95" spans="2:10">
-      <c r="B95" s="134"/>
-      <c r="C95" s="135"/>
-      <c r="D95" s="135"/>
-      <c r="E95" s="151"/>
-      <c r="F95" s="135"/>
-      <c r="G95" s="135"/>
-      <c r="H95" s="135"/>
-      <c r="I95" s="135"/>
-      <c r="J95" s="136"/>
+      <c r="B95" s="133"/>
+      <c r="C95" s="134"/>
+      <c r="D95" s="134"/>
+      <c r="E95" s="150"/>
+      <c r="F95" s="134"/>
+      <c r="G95" s="134"/>
+      <c r="H95" s="134"/>
+      <c r="I95" s="134"/>
+      <c r="J95" s="135"/>
     </row>
     <row r="96" spans="2:10">
-      <c r="B96" s="134"/>
-      <c r="C96" s="135"/>
-      <c r="D96" s="135"/>
-      <c r="E96" s="151"/>
-      <c r="F96" s="135"/>
-      <c r="G96" s="135"/>
-      <c r="H96" s="135"/>
-      <c r="I96" s="135"/>
-      <c r="J96" s="136"/>
+      <c r="B96" s="133"/>
+      <c r="C96" s="134"/>
+      <c r="D96" s="134"/>
+      <c r="E96" s="150"/>
+      <c r="F96" s="134"/>
+      <c r="G96" s="134"/>
+      <c r="H96" s="134"/>
+      <c r="I96" s="134"/>
+      <c r="J96" s="135"/>
     </row>
     <row r="97" spans="2:10">
-      <c r="B97" s="134"/>
-      <c r="C97" s="135"/>
-      <c r="D97" s="135"/>
-      <c r="E97" s="151"/>
-      <c r="F97" s="135"/>
-      <c r="G97" s="135"/>
-      <c r="H97" s="135"/>
-      <c r="I97" s="135"/>
-      <c r="J97" s="136"/>
+      <c r="B97" s="133"/>
+      <c r="C97" s="134"/>
+      <c r="D97" s="134"/>
+      <c r="E97" s="150"/>
+      <c r="F97" s="134"/>
+      <c r="G97" s="134"/>
+      <c r="H97" s="134"/>
+      <c r="I97" s="134"/>
+      <c r="J97" s="135"/>
     </row>
     <row r="98" spans="2:10">
-      <c r="B98" s="134"/>
-      <c r="C98" s="135"/>
-      <c r="D98" s="135"/>
-      <c r="E98" s="151"/>
-      <c r="F98" s="135"/>
-      <c r="G98" s="135"/>
-      <c r="H98" s="135"/>
-      <c r="I98" s="135"/>
-      <c r="J98" s="136"/>
+      <c r="B98" s="133"/>
+      <c r="C98" s="134"/>
+      <c r="D98" s="134"/>
+      <c r="E98" s="150"/>
+      <c r="F98" s="134"/>
+      <c r="G98" s="134"/>
+      <c r="H98" s="134"/>
+      <c r="I98" s="134"/>
+      <c r="J98" s="135"/>
     </row>
     <row r="99" spans="2:10">
-      <c r="B99" s="134"/>
-      <c r="C99" s="135"/>
-      <c r="D99" s="135"/>
-      <c r="E99" s="151"/>
-      <c r="F99" s="135"/>
-      <c r="G99" s="135"/>
-      <c r="H99" s="135"/>
-      <c r="I99" s="135"/>
-      <c r="J99" s="136"/>
+      <c r="B99" s="133"/>
+      <c r="C99" s="134"/>
+      <c r="D99" s="134"/>
+      <c r="E99" s="150"/>
+      <c r="F99" s="134"/>
+      <c r="G99" s="134"/>
+      <c r="H99" s="134"/>
+      <c r="I99" s="134"/>
+      <c r="J99" s="135"/>
     </row>
     <row r="100" spans="2:10">
-      <c r="B100" s="134"/>
-      <c r="C100" s="135"/>
-      <c r="D100" s="135"/>
-      <c r="E100" s="151"/>
-      <c r="F100" s="135"/>
-      <c r="G100" s="135"/>
-      <c r="H100" s="135"/>
-      <c r="I100" s="135"/>
-      <c r="J100" s="136"/>
+      <c r="B100" s="133"/>
+      <c r="C100" s="134"/>
+      <c r="D100" s="134"/>
+      <c r="E100" s="150"/>
+      <c r="F100" s="134"/>
+      <c r="G100" s="134"/>
+      <c r="H100" s="134"/>
+      <c r="I100" s="134"/>
+      <c r="J100" s="135"/>
     </row>
     <row r="101" spans="2:10">
-      <c r="B101" s="134"/>
-      <c r="C101" s="135"/>
-      <c r="D101" s="135"/>
-      <c r="E101" s="151"/>
-      <c r="F101" s="135"/>
-      <c r="G101" s="135"/>
-      <c r="H101" s="135"/>
-      <c r="I101" s="135"/>
-      <c r="J101" s="136"/>
+      <c r="B101" s="133"/>
+      <c r="C101" s="134"/>
+      <c r="D101" s="134"/>
+      <c r="E101" s="150"/>
+      <c r="F101" s="134"/>
+      <c r="G101" s="134"/>
+      <c r="H101" s="134"/>
+      <c r="I101" s="134"/>
+      <c r="J101" s="135"/>
     </row>
     <row r="102" spans="2:10">
-      <c r="B102" s="134"/>
-      <c r="C102" s="135"/>
-      <c r="D102" s="135"/>
-      <c r="E102" s="151"/>
-      <c r="F102" s="135"/>
-      <c r="G102" s="135"/>
-      <c r="H102" s="135"/>
-      <c r="I102" s="135"/>
-      <c r="J102" s="136"/>
+      <c r="B102" s="133"/>
+      <c r="C102" s="134"/>
+      <c r="D102" s="134"/>
+      <c r="E102" s="150"/>
+      <c r="F102" s="134"/>
+      <c r="G102" s="134"/>
+      <c r="H102" s="134"/>
+      <c r="I102" s="134"/>
+      <c r="J102" s="135"/>
     </row>
     <row r="103" spans="2:10">
-      <c r="B103" s="134"/>
+      <c r="B103" s="133"/>
       <c r="C103" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D103" s="140" t="str">
+        <v>132</v>
+      </c>
+      <c r="D103" s="139" t="str">
         <f>Dashboard!C$14</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="E103" s="150">
+      <c r="E103" s="149">
         <f>E107*E108</f>
         <v>60055.755466803734</v>
       </c>
-      <c r="F103" s="137" t="s">
-        <v>102</v>
-      </c>
-      <c r="G103" s="135"/>
-      <c r="H103" s="135"/>
-      <c r="I103" s="135"/>
-      <c r="J103" s="136"/>
+      <c r="F103" s="136" t="s">
+        <v>97</v>
+      </c>
+      <c r="G103" s="134"/>
+      <c r="H103" s="134"/>
+      <c r="I103" s="134"/>
+      <c r="J103" s="135"/>
     </row>
     <row r="104" spans="2:10">
-      <c r="B104" s="134"/>
-      <c r="C104" s="135"/>
-      <c r="D104" s="135" t="s">
-        <v>134</v>
-      </c>
-      <c r="E104" s="135">
+      <c r="B104" s="133"/>
+      <c r="C104" s="134"/>
+      <c r="D104" s="134" t="s">
+        <v>129</v>
+      </c>
+      <c r="E104" s="134">
         <v>120</v>
       </c>
-      <c r="F104" s="135" t="s">
-        <v>112</v>
-      </c>
-      <c r="G104" s="135"/>
-      <c r="H104" s="135"/>
-      <c r="I104" s="135"/>
-      <c r="J104" s="136"/>
+      <c r="F104" s="134" t="s">
+        <v>107</v>
+      </c>
+      <c r="G104" s="134"/>
+      <c r="H104" s="134"/>
+      <c r="I104" s="134"/>
+      <c r="J104" s="135"/>
     </row>
     <row r="105" spans="2:10">
-      <c r="B105" s="134"/>
-      <c r="C105" s="135"/>
-      <c r="D105" s="135" t="s">
-        <v>135</v>
-      </c>
-      <c r="E105" s="135">
+      <c r="B105" s="133"/>
+      <c r="C105" s="134"/>
+      <c r="D105" s="134" t="s">
+        <v>130</v>
+      </c>
+      <c r="E105" s="134">
         <v>405</v>
       </c>
-      <c r="F105" s="135" t="s">
+      <c r="F105" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="G105" s="135"/>
-      <c r="H105" s="135"/>
-      <c r="I105" s="135"/>
-      <c r="J105" s="136"/>
+      <c r="G105" s="134"/>
+      <c r="H105" s="134"/>
+      <c r="I105" s="134"/>
+      <c r="J105" s="135"/>
     </row>
     <row r="106" spans="2:10">
-      <c r="B106" s="134"/>
-      <c r="C106" s="135"/>
-      <c r="D106" s="135" t="s">
-        <v>136</v>
-      </c>
-      <c r="E106" s="151">
+      <c r="B106" s="133"/>
+      <c r="C106" s="134"/>
+      <c r="D106" s="134" t="s">
+        <v>131</v>
+      </c>
+      <c r="E106" s="150">
         <f>E105/1.21</f>
         <v>334.71074380165288</v>
       </c>
-      <c r="F106" s="135" t="s">
+      <c r="F106" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="G106" s="135"/>
-      <c r="H106" s="135"/>
-      <c r="I106" s="135"/>
-      <c r="J106" s="136"/>
+      <c r="G106" s="134"/>
+      <c r="H106" s="134"/>
+      <c r="I106" s="134"/>
+      <c r="J106" s="135"/>
     </row>
     <row r="107" spans="2:10">
-      <c r="B107" s="134"/>
-      <c r="C107" s="135"/>
-      <c r="D107" s="135" t="s">
-        <v>138</v>
-      </c>
-      <c r="E107" s="152">
+      <c r="B107" s="133"/>
+      <c r="C107" s="134"/>
+      <c r="D107" s="134" t="s">
+        <v>133</v>
+      </c>
+      <c r="E107" s="151">
         <f>E106/E104</f>
         <v>2.7892561983471071</v>
       </c>
-      <c r="F107" s="135" t="s">
-        <v>139</v>
-      </c>
-      <c r="G107" s="135"/>
-      <c r="H107" s="135"/>
-      <c r="I107" s="135"/>
-      <c r="J107" s="136"/>
+      <c r="F107" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="G107" s="134"/>
+      <c r="H107" s="134"/>
+      <c r="I107" s="134"/>
+      <c r="J107" s="135"/>
     </row>
     <row r="108" spans="2:10">
-      <c r="B108" s="134"/>
-      <c r="C108" s="135"/>
-      <c r="D108" s="135" t="s">
-        <v>140</v>
-      </c>
-      <c r="E108" s="151">
+      <c r="B108" s="133"/>
+      <c r="C108" s="134"/>
+      <c r="D108" s="134" t="s">
+        <v>135</v>
+      </c>
+      <c r="E108" s="150">
         <f>E$19/E$21*1000</f>
         <v>21531.100478468896</v>
       </c>
-      <c r="F108" s="135" t="s">
-        <v>141</v>
-      </c>
-      <c r="G108" s="135"/>
-      <c r="H108" s="135"/>
-      <c r="I108" s="135"/>
-      <c r="J108" s="136"/>
+      <c r="F108" s="134" t="s">
+        <v>136</v>
+      </c>
+      <c r="G108" s="134"/>
+      <c r="H108" s="134"/>
+      <c r="I108" s="134"/>
+      <c r="J108" s="135"/>
     </row>
     <row r="109" spans="2:10">
-      <c r="B109" s="134"/>
-      <c r="C109" s="135"/>
-      <c r="D109" s="135" t="s">
-        <v>142</v>
-      </c>
-      <c r="E109" s="151">
+      <c r="B109" s="133"/>
+      <c r="C109" s="134"/>
+      <c r="D109" s="134" t="s">
+        <v>137</v>
+      </c>
+      <c r="E109" s="150">
         <f>E103*E$6</f>
         <v>300.27877733401868</v>
       </c>
-      <c r="F109" s="135" t="s">
+      <c r="F109" s="134" t="s">
+        <v>138</v>
+      </c>
+      <c r="G109" s="134"/>
+      <c r="H109" s="134"/>
+      <c r="I109" s="134"/>
+      <c r="J109" s="135"/>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="133"/>
+      <c r="C110" s="134"/>
+      <c r="D110" s="134"/>
+      <c r="E110" s="150"/>
+      <c r="F110" s="134"/>
+      <c r="G110" s="134"/>
+      <c r="H110" s="134"/>
+      <c r="I110" s="134"/>
+      <c r="J110" s="135"/>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="133"/>
+      <c r="C111" s="134"/>
+      <c r="D111" s="134"/>
+      <c r="E111" s="150"/>
+      <c r="F111" s="134"/>
+      <c r="G111" s="134"/>
+      <c r="H111" s="134"/>
+      <c r="I111" s="134"/>
+      <c r="J111" s="135"/>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" s="133"/>
+      <c r="C112" s="134"/>
+      <c r="D112" s="134"/>
+      <c r="E112" s="150"/>
+      <c r="F112" s="134"/>
+      <c r="G112" s="134"/>
+      <c r="H112" s="134"/>
+      <c r="I112" s="134"/>
+      <c r="J112" s="135"/>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113" s="133"/>
+      <c r="C113" s="134"/>
+      <c r="D113" s="134"/>
+      <c r="E113" s="150"/>
+      <c r="F113" s="134"/>
+      <c r="G113" s="134"/>
+      <c r="H113" s="134"/>
+      <c r="I113" s="134"/>
+      <c r="J113" s="135"/>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="133"/>
+      <c r="C114" s="134"/>
+      <c r="D114" s="134"/>
+      <c r="E114" s="150"/>
+      <c r="F114" s="134"/>
+      <c r="G114" s="134"/>
+      <c r="H114" s="134"/>
+      <c r="I114" s="134"/>
+      <c r="J114" s="135"/>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="133"/>
+      <c r="C115" s="134"/>
+      <c r="D115" s="134"/>
+      <c r="E115" s="150"/>
+      <c r="F115" s="134"/>
+      <c r="G115" s="134"/>
+      <c r="H115" s="134"/>
+      <c r="I115" s="134"/>
+      <c r="J115" s="135"/>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="133"/>
+      <c r="C116" s="134"/>
+      <c r="D116" s="134"/>
+      <c r="E116" s="150"/>
+      <c r="F116" s="134"/>
+      <c r="G116" s="134"/>
+      <c r="H116" s="134"/>
+      <c r="I116" s="134"/>
+      <c r="J116" s="135"/>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" s="133"/>
+      <c r="C117" s="134"/>
+      <c r="D117" s="134"/>
+      <c r="E117" s="150"/>
+      <c r="F117" s="134"/>
+      <c r="G117" s="134"/>
+      <c r="H117" s="134"/>
+      <c r="I117" s="134"/>
+      <c r="J117" s="135"/>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="133"/>
+      <c r="C118" s="134"/>
+      <c r="D118" s="134"/>
+      <c r="E118" s="150"/>
+      <c r="F118" s="134"/>
+      <c r="G118" s="134"/>
+      <c r="H118" s="134"/>
+      <c r="I118" s="134"/>
+      <c r="J118" s="135"/>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="133"/>
+      <c r="C119" s="134"/>
+      <c r="D119" s="134"/>
+      <c r="E119" s="150"/>
+      <c r="F119" s="134"/>
+      <c r="G119" s="134"/>
+      <c r="H119" s="134"/>
+      <c r="I119" s="134"/>
+      <c r="J119" s="135"/>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="133"/>
+      <c r="C120" s="134"/>
+      <c r="D120" s="134"/>
+      <c r="E120" s="150"/>
+      <c r="F120" s="134"/>
+      <c r="G120" s="134"/>
+      <c r="H120" s="134"/>
+      <c r="I120" s="134"/>
+      <c r="J120" s="135"/>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="B121" s="133"/>
+      <c r="C121" s="134"/>
+      <c r="D121" s="134"/>
+      <c r="E121" s="150"/>
+      <c r="F121" s="134"/>
+      <c r="G121" s="134"/>
+      <c r="H121" s="134"/>
+      <c r="I121" s="134"/>
+      <c r="J121" s="135"/>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="133"/>
+      <c r="C122" s="134"/>
+      <c r="D122" s="134"/>
+      <c r="E122" s="150"/>
+      <c r="F122" s="134"/>
+      <c r="G122" s="134"/>
+      <c r="H122" s="134"/>
+      <c r="I122" s="134"/>
+      <c r="J122" s="135"/>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="B123" s="133"/>
+      <c r="C123" s="134"/>
+      <c r="D123" s="134"/>
+      <c r="E123" s="150"/>
+      <c r="F123" s="134"/>
+      <c r="G123" s="134"/>
+      <c r="H123" s="134"/>
+      <c r="I123" s="134"/>
+      <c r="J123" s="135"/>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="C126" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D126" s="157"/>
+      <c r="E126" s="157"/>
+      <c r="F126" s="157"/>
+      <c r="G126" s="157"/>
+      <c r="H126" s="157"/>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="C127" s="157"/>
+      <c r="D127" s="157"/>
+      <c r="E127" s="157"/>
+      <c r="F127" s="157"/>
+      <c r="G127" s="157"/>
+      <c r="H127" s="157"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="C128" s="21"/>
+      <c r="D128" s="157" t="s">
+        <v>142</v>
+      </c>
+      <c r="E128" s="157">
+        <v>4628</v>
+      </c>
+      <c r="F128" s="157" t="s">
         <v>143</v>
       </c>
-      <c r="G109" s="135"/>
-      <c r="H109" s="135"/>
-      <c r="I109" s="135"/>
-      <c r="J109" s="136"/>
-    </row>
-    <row r="110" spans="2:10">
-      <c r="B110" s="134"/>
-      <c r="C110" s="135"/>
-      <c r="D110" s="135"/>
-      <c r="E110" s="151"/>
-      <c r="F110" s="135"/>
-      <c r="G110" s="135"/>
-      <c r="H110" s="135"/>
-      <c r="I110" s="135"/>
-      <c r="J110" s="136"/>
-    </row>
-    <row r="111" spans="2:10">
-      <c r="B111" s="134"/>
-      <c r="C111" s="135"/>
-      <c r="D111" s="135"/>
-      <c r="E111" s="151"/>
-      <c r="F111" s="135"/>
-      <c r="G111" s="135"/>
-      <c r="H111" s="135"/>
-      <c r="I111" s="135"/>
-      <c r="J111" s="136"/>
-    </row>
-    <row r="112" spans="2:10">
-      <c r="B112" s="134"/>
-      <c r="C112" s="135"/>
-      <c r="D112" s="135"/>
-      <c r="E112" s="151"/>
-      <c r="F112" s="135"/>
-      <c r="G112" s="135"/>
-      <c r="H112" s="135"/>
-      <c r="I112" s="135"/>
-      <c r="J112" s="136"/>
-    </row>
-    <row r="113" spans="2:10">
-      <c r="B113" s="134"/>
-      <c r="C113" s="135"/>
-      <c r="D113" s="135"/>
-      <c r="E113" s="151"/>
-      <c r="F113" s="135"/>
-      <c r="G113" s="135"/>
-      <c r="H113" s="135"/>
-      <c r="I113" s="135"/>
-      <c r="J113" s="136"/>
-    </row>
-    <row r="114" spans="2:10">
-      <c r="B114" s="134"/>
-      <c r="C114" s="135"/>
-      <c r="D114" s="135"/>
-      <c r="E114" s="151"/>
-      <c r="F114" s="135"/>
-      <c r="G114" s="135"/>
-      <c r="H114" s="135"/>
-      <c r="I114" s="135"/>
-      <c r="J114" s="136"/>
-    </row>
-    <row r="115" spans="2:10">
-      <c r="B115" s="134"/>
-      <c r="C115" s="135"/>
-      <c r="D115" s="135"/>
-      <c r="E115" s="151"/>
-      <c r="F115" s="135"/>
-      <c r="G115" s="135"/>
-      <c r="H115" s="135"/>
-      <c r="I115" s="135"/>
-      <c r="J115" s="136"/>
-    </row>
-    <row r="116" spans="2:10">
-      <c r="B116" s="134"/>
-      <c r="C116" s="135"/>
-      <c r="D116" s="135"/>
-      <c r="E116" s="151"/>
-      <c r="F116" s="135"/>
-      <c r="G116" s="135"/>
-      <c r="H116" s="135"/>
-      <c r="I116" s="135"/>
-      <c r="J116" s="136"/>
-    </row>
-    <row r="117" spans="2:10">
-      <c r="B117" s="134"/>
-      <c r="C117" s="135"/>
-      <c r="D117" s="135"/>
-      <c r="E117" s="151"/>
-      <c r="F117" s="135"/>
-      <c r="G117" s="135"/>
-      <c r="H117" s="135"/>
-      <c r="I117" s="135"/>
-      <c r="J117" s="136"/>
-    </row>
-    <row r="118" spans="2:10">
-      <c r="B118" s="134"/>
-      <c r="C118" s="135"/>
-      <c r="D118" s="135"/>
-      <c r="E118" s="151"/>
-      <c r="F118" s="135"/>
-      <c r="G118" s="135"/>
-      <c r="H118" s="135"/>
-      <c r="I118" s="135"/>
-      <c r="J118" s="136"/>
-    </row>
-    <row r="119" spans="2:10">
-      <c r="B119" s="134"/>
-      <c r="C119" s="135"/>
-      <c r="D119" s="135"/>
-      <c r="E119" s="151"/>
-      <c r="F119" s="135"/>
-      <c r="G119" s="135"/>
-      <c r="H119" s="135"/>
-      <c r="I119" s="135"/>
-      <c r="J119" s="136"/>
-    </row>
-    <row r="120" spans="2:10">
-      <c r="B120" s="134"/>
-      <c r="C120" s="135"/>
-      <c r="D120" s="135"/>
-      <c r="E120" s="151"/>
-      <c r="F120" s="135"/>
-      <c r="G120" s="135"/>
-      <c r="H120" s="135"/>
-      <c r="I120" s="135"/>
-      <c r="J120" s="136"/>
-    </row>
-    <row r="121" spans="2:10">
-      <c r="B121" s="134"/>
-      <c r="C121" s="135"/>
-      <c r="D121" s="135"/>
-      <c r="E121" s="151"/>
-      <c r="F121" s="135"/>
-      <c r="G121" s="135"/>
-      <c r="H121" s="135"/>
-      <c r="I121" s="135"/>
-      <c r="J121" s="136"/>
-    </row>
-    <row r="122" spans="2:10">
-      <c r="B122" s="134"/>
-      <c r="C122" s="135"/>
-      <c r="D122" s="135"/>
-      <c r="E122" s="151"/>
-      <c r="F122" s="135"/>
-      <c r="G122" s="135"/>
-      <c r="H122" s="135"/>
-      <c r="I122" s="135"/>
-      <c r="J122" s="136"/>
-    </row>
-    <row r="123" spans="2:10">
-      <c r="B123" s="134"/>
-      <c r="C123" s="135"/>
-      <c r="D123" s="135"/>
-      <c r="E123" s="151"/>
-      <c r="F123" s="135"/>
-      <c r="G123" s="135"/>
-      <c r="H123" s="135"/>
-      <c r="I123" s="135"/>
-      <c r="J123" s="136"/>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="G128" s="157" t="s">
+        <v>144</v>
+      </c>
+      <c r="H128" s="157"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="C129" s="21"/>
+      <c r="D129" s="157" t="s">
+        <v>145</v>
+      </c>
+      <c r="E129" s="157">
+        <v>573</v>
+      </c>
+      <c r="F129" s="157" t="s">
+        <v>146</v>
+      </c>
+      <c r="G129" s="157" t="s">
+        <v>147</v>
+      </c>
+      <c r="H129" s="157"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="C130" s="21"/>
+      <c r="D130" s="157" t="s">
+        <v>148</v>
+      </c>
+      <c r="E130" s="157">
+        <f>E128+E129*'Research data'!M6*1000</f>
+        <v>10358</v>
+      </c>
+      <c r="F130" s="157"/>
+      <c r="G130" s="157"/>
+      <c r="H130" s="157"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="C131" s="21"/>
+      <c r="D131" s="157"/>
+      <c r="E131" s="157"/>
+      <c r="F131" s="157"/>
+      <c r="G131" s="157"/>
+      <c r="H131" s="157"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="C132" s="21"/>
+      <c r="D132" s="157" t="s">
+        <v>149</v>
+      </c>
+      <c r="E132" s="157">
+        <v>8460</v>
+      </c>
+      <c r="F132" s="157" t="s">
+        <v>143</v>
+      </c>
+      <c r="G132" s="157" t="s">
+        <v>150</v>
+      </c>
+      <c r="H132" s="157"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="C133" s="21"/>
+      <c r="D133" s="157" t="s">
+        <v>151</v>
+      </c>
+      <c r="E133" s="157">
+        <v>899</v>
+      </c>
+      <c r="F133" s="157" t="s">
+        <v>146</v>
+      </c>
+      <c r="G133" s="157" t="s">
+        <v>152</v>
+      </c>
+      <c r="H133" s="157"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="C134" s="21"/>
+      <c r="D134" s="157" t="s">
+        <v>153</v>
+      </c>
+      <c r="E134" s="157">
+        <f>E132+E133*'Research data'!M6*1000</f>
+        <v>17450</v>
+      </c>
+      <c r="F134" s="157"/>
+      <c r="G134" s="157"/>
+      <c r="H134" s="157"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="C135" s="21"/>
+      <c r="D135" s="157"/>
+      <c r="E135" s="157"/>
+      <c r="F135" s="157"/>
+      <c r="G135" s="157"/>
+      <c r="H135" s="157"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="C136" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D136" s="157" t="s">
+        <v>155</v>
+      </c>
+      <c r="E136" s="157">
+        <f>(E130+E134)/2</f>
+        <v>13904</v>
+      </c>
+      <c r="F136" s="157" t="s">
+        <v>156</v>
+      </c>
+      <c r="G136" s="157"/>
+      <c r="H136" s="157"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="C137" s="21"/>
+      <c r="D137" s="157" t="s">
+        <v>157</v>
+      </c>
+      <c r="E137" s="157"/>
+      <c r="F137" s="157"/>
+      <c r="G137" s="157"/>
+      <c r="H137" s="157"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="C138" s="21"/>
+      <c r="D138" s="157"/>
+      <c r="E138" s="157"/>
+      <c r="F138" s="157"/>
+      <c r="G138" s="157"/>
+      <c r="H138" s="157"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="C139" s="21"/>
+      <c r="D139" s="157" t="s">
+        <v>158</v>
+      </c>
+      <c r="E139" s="157"/>
+      <c r="F139" s="157"/>
+      <c r="G139" s="157"/>
+      <c r="H139" s="157"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="C140" s="157"/>
+      <c r="D140" s="157"/>
+      <c r="E140" s="157"/>
+      <c r="F140" s="157"/>
+      <c r="G140" s="157"/>
+      <c r="H140" s="157"/>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="21"/>
       <c r="B141" s="21"/>
-      <c r="C141" s="21"/>
-      <c r="E141" s="135"/>
+      <c r="C141" s="157"/>
+      <c r="D141" s="157"/>
+      <c r="E141" s="157"/>
+      <c r="F141" s="157"/>
+      <c r="G141" s="157"/>
+      <c r="H141" s="157"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="C142" s="157"/>
+      <c r="D142" s="157"/>
+      <c r="E142" s="157"/>
+      <c r="F142" s="157"/>
+      <c r="G142" s="157"/>
+      <c r="H142" s="157"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="C143" s="157"/>
+      <c r="D143" s="157"/>
+      <c r="E143" s="157"/>
+      <c r="F143" s="157"/>
+      <c r="G143" s="157"/>
+      <c r="H143" s="157"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="C144" s="157"/>
+      <c r="D144" s="157"/>
+      <c r="E144" s="157"/>
+      <c r="F144" s="157"/>
+      <c r="G144" s="157"/>
+      <c r="H144" s="157"/>
+    </row>
+    <row r="145" spans="3:8">
+      <c r="C145" s="157"/>
+      <c r="D145" s="157"/>
+      <c r="E145" s="157"/>
+      <c r="F145" s="157"/>
+      <c r="G145" s="157"/>
+      <c r="H145" s="157"/>
+    </row>
+    <row r="146" spans="3:8">
+      <c r="C146" s="157"/>
+      <c r="D146" s="157"/>
+      <c r="E146" s="157"/>
+      <c r="F146" s="157"/>
+      <c r="G146" s="157"/>
+      <c r="H146" s="157"/>
+    </row>
+    <row r="147" spans="3:8">
+      <c r="C147" s="157"/>
+      <c r="D147" s="157"/>
+      <c r="E147" s="157"/>
+      <c r="F147" s="157"/>
+      <c r="G147" s="157"/>
+      <c r="H147" s="157"/>
+    </row>
+    <row r="148" spans="3:8">
+      <c r="C148" s="157"/>
+      <c r="D148" s="157"/>
+      <c r="E148" s="157"/>
+      <c r="F148" s="157"/>
+      <c r="G148" s="157"/>
+      <c r="H148" s="157"/>
+    </row>
+    <row r="149" spans="3:8">
+      <c r="C149" s="157"/>
+      <c r="D149" s="157"/>
+      <c r="E149" s="157"/>
+      <c r="F149" s="157"/>
+      <c r="G149" s="157"/>
+      <c r="H149" s="157"/>
+    </row>
+    <row r="150" spans="3:8">
+      <c r="C150" s="157"/>
+      <c r="D150" s="157"/>
+      <c r="E150" s="157"/>
+      <c r="F150" s="157"/>
+      <c r="G150" s="157"/>
+      <c r="H150" s="157"/>
+    </row>
+    <row r="151" spans="3:8">
+      <c r="C151" s="157"/>
+      <c r="D151" s="157"/>
+      <c r="E151" s="157"/>
+      <c r="F151" s="157"/>
+      <c r="G151" s="157"/>
+      <c r="H151" s="157"/>
+    </row>
+    <row r="152" spans="3:8">
+      <c r="C152" s="157"/>
+      <c r="D152" s="157"/>
+      <c r="E152" s="157"/>
+      <c r="F152" s="157"/>
+      <c r="G152" s="157"/>
+      <c r="H152" s="157"/>
+    </row>
+    <row r="153" spans="3:8">
+      <c r="C153" s="157"/>
+      <c r="D153" s="157"/>
+      <c r="E153" s="157"/>
+      <c r="F153" s="157"/>
+      <c r="G153" s="157"/>
+      <c r="H153" s="157"/>
+    </row>
+    <row r="154" spans="3:8">
+      <c r="C154" s="157"/>
+      <c r="D154" s="157"/>
+      <c r="E154" s="157"/>
+      <c r="F154" s="157"/>
+      <c r="G154" s="157"/>
+      <c r="H154" s="157"/>
+    </row>
+    <row r="155" spans="3:8">
+      <c r="C155" s="157"/>
+      <c r="D155" s="157"/>
+      <c r="E155" s="157"/>
+      <c r="F155" s="157"/>
+      <c r="G155" s="157"/>
+      <c r="H155" s="157"/>
+    </row>
+    <row r="156" spans="3:8">
+      <c r="C156" s="157"/>
+      <c r="D156" s="157"/>
+      <c r="E156" s="157"/>
+      <c r="F156" s="157"/>
+      <c r="G156" s="157"/>
+      <c r="H156" s="157"/>
+    </row>
+    <row r="157" spans="3:8">
+      <c r="C157" s="157"/>
+      <c r="D157" s="157"/>
+      <c r="E157" s="157"/>
+      <c r="F157" s="157"/>
+      <c r="G157" s="157"/>
+      <c r="H157" s="157"/>
+    </row>
+    <row r="158" spans="3:8">
+      <c r="C158" s="157"/>
+      <c r="D158" s="157"/>
+      <c r="E158" s="157"/>
+      <c r="F158" s="157"/>
+      <c r="G158" s="157"/>
+      <c r="H158" s="157"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
